--- a/src/edBalance/data/result.xlsx
+++ b/src/edBalance/data/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\projects\personal\ergo-layouts\src\edBalance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774F0D8-75D2-46B2-A4F8-5D401AA3135E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F57D51E-EA20-4068-B41E-54B43B804A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="-108" windowWidth="30096" windowHeight="17496" xr2:uid="{AD34469A-B5B4-4A82-AB26-50156FBE1896}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="849">
   <si>
     <t>Column1</t>
   </si>
@@ -2146,6 +2146,432 @@
   </si>
   <si>
     <t>Column8</t>
+  </si>
+  <si>
+    <t>aserthzxcv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bcefhjkqrstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adgilmnopuw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bcefhkqrstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adgijlmnopuw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bcefhkrstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adgijlmnopquw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bcefhrstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adgijklmnopquw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cefhrstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abdgijklmnopquw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstvwxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstvxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjqrstvxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgiklmnopuwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjrstvxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgiklmnopquwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abehjkqrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cdfgilmnopu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aehjkqrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bcdfgilmnopu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aehjkqrstvwxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bcdfgilmnopuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aehjqrstvwxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bcdfgiklmnopuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aehqrstvwxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bcdfgijklmnopuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcfghprstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deijklmnoqu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcfghprstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deijklmnoquw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acfghprstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdeijklmnoquw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acghprstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdefijklmnoquw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> achprstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdefgijklmnoquw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcejkqrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfghilmnopu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acejkqrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfghilmnopu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acejkqrstvwxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfghilmnopuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acejkqrstvxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfghilmnopuwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acekqrstvxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfghijlmnopuwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aceghkqrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfijlmnopu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehkqrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgijlmnopu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehkqrstvwxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgijlmnopuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehkqrstvxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgijlmnopuwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehqrstvxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgijklmnopuwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehjqrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgiklmnopu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjqrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgiklmnopu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjqrstvwxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgiklmnopuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehjkrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgilmnopqu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkrstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopqu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkrstvwxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopquy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkrstvxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopquwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehjkqstvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgilmnopru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehjkqstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgilmnopruw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehkqstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgijlmnopruw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehkstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgijlmnopqruw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgijklmnopqruw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehjkqrtvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgilmnopsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrtvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjqrtvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgiklmnopsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehqrtvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgijklmnopsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehrtvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgijklmnopqsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abceghkqrsvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfijlmnoptu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abceghkrsvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfijlmnopqtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abceghrsvwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfijklmnopqtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abceghrsvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfijklmnopqtuw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abceghrsvxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfijklmnopqtuwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehjkqrstwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgilmnopuv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstwxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstwxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuvy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuvwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjqrstxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgiklmnopuvwy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehjkqrstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgilmnopuw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstvxyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehjkqrstvwyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgilmnopux</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstvwyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopux</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstvwz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstvz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuwxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjqrstvz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgiklmnopuwxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehjkqrstvwxz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgilmnopuy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abcehjkqrstvwxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dfgilmnopuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstvwxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstvwx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjkqrstvx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgilmnopuwyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acehjqrstvx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bdfgiklmnopuwyz</t>
+  </si>
+  <si>
+    <t>Column9</t>
   </si>
 </sst>
 </file>
@@ -2281,7 +2707,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -2292,6 +2718,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent6" xfId="6" builtinId="52"/>
@@ -2302,7 +2730,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2310,64 +2738,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2414,6 +2785,12 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2440,7 +2817,7 @@
     <tableColumn id="4" xr3:uid="{CF1A23CA-E6DF-401F-9297-CE8FC423651E}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{F03C7A48-B318-4728-8780-36F21ADA595A}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{418C3F5A-855D-4D2F-9D88-19547042B6D6}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{65AB2473-07CB-4DF0-BD93-DAA475A62C8B}" name="Column7" dataDxfId="15">
+    <tableColumn id="7" xr3:uid="{65AB2473-07CB-4DF0-BD93-DAA475A62C8B}" name="Column7" dataDxfId="12">
       <calculatedColumnFormula>Table2[[#This Row],[Column3]]+Table2[[#This Row],[Column5]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2461,7 +2838,7 @@
     <tableColumn id="4" xr3:uid="{0E36D8A9-FFE6-4B53-B54E-F81E7B176BF7}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{021EDBFB-4265-4DCE-9E10-5727A88E94B5}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{2E5E1AF4-E61D-45CB-810C-6F3FBD1EB232}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{2AF47F0E-1AD7-4D37-A5DA-AFCE72514DCC}" name="Column7" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{2AF47F0E-1AD7-4D37-A5DA-AFCE72514DCC}" name="Column7" dataDxfId="11">
       <calculatedColumnFormula>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2482,7 +2859,7 @@
     <tableColumn id="4" xr3:uid="{5CA3FE41-62A6-433A-BD98-651CAA6019D0}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{799EC143-6BC6-49E5-8227-4A99AC0A43BD}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{1543A16E-64F6-48F1-88F5-3FABC9B48824}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{9D15E7E2-CF89-4358-BEFB-2B454EFCA5CE}" name="Column7" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{9D15E7E2-CF89-4358-BEFB-2B454EFCA5CE}" name="Column7" dataDxfId="10">
       <calculatedColumnFormula>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2503,10 +2880,10 @@
     <tableColumn id="4" xr3:uid="{6E4ADF63-BB02-4615-9776-512F360D9216}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{5917B4DE-CC6E-48AA-8A51-B7881A05581C}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{E5E725AA-4F46-4F98-ADD2-951E8CDED01F}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{42848454-271B-4F7A-96B4-18DE096807C2}" name="Column7" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{42848454-271B-4F7A-96B4-18DE096807C2}" name="Column7" dataDxfId="9">
       <calculatedColumnFormula>Table6[[#This Row],[Column3]]+Table6[[#This Row],[Column5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{322E9437-9FD1-4A5C-90C2-0C59627D5F4B}" name="Column8" dataDxfId="1" dataCellStyle="Bad">
+    <tableColumn id="8" xr3:uid="{322E9437-9FD1-4A5C-90C2-0C59627D5F4B}" name="Column8" dataDxfId="8" dataCellStyle="Bad">
       <calculatedColumnFormula>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2527,11 +2904,38 @@
     <tableColumn id="4" xr3:uid="{1C20EB55-34E1-4FCE-A318-7ABFB45FA20D}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{6FBDCD96-AFBE-4CC8-8BE4-2AB8CA0A786E}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{337613FC-68F5-44A8-A2FB-631632C68C0A}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{0AAA6949-E2AD-4460-B7D7-E8CB8C55C1E9}" name="Column7" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{0AAA6949-E2AD-4460-B7D7-E8CB8C55C1E9}" name="Column7" dataDxfId="7">
       <calculatedColumnFormula>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8935A18A-24ED-45A4-AF0A-CE6FFDB3FE9F}" name="Column8" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{8935A18A-24ED-45A4-AF0A-CE6FFDB3FE9F}" name="Column8" dataDxfId="6">
       <calculatedColumnFormula>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19797DCE-96CD-4839-91DB-E5E393579AF4}" name="Table1" displayName="Table1" ref="AW1:BE126" totalsRowShown="0">
+  <autoFilter ref="AW1:BE126" xr:uid="{E25E12B7-B320-41A1-BAC5-CD8C0DBD2C31}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AW2:BE126">
+    <sortCondition descending="1" ref="BC1:BC126"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A44F3659-617B-48CC-8E75-0E242795697D}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{2FFC3D11-3B35-47A8-9DCD-997D301DE6FD}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{24D958E7-DFE6-4D50-9359-F64C526B0C94}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{B6DE5FBF-0340-48D0-B278-83BC76200044}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{6A6FAABB-A765-409A-B5C5-B93E25489643}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{8BDEC070-FF54-44FE-B5DF-84400D16D791}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{D34F8E3E-DE64-447B-92A6-6A82A77F707E}" name="Column7" dataDxfId="2">
+      <calculatedColumnFormula>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{449559BC-7872-41A0-885B-03A21B91FBC5}" name="Column8" dataDxfId="0">
+      <calculatedColumnFormula>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{42530F42-BB1E-4FED-B36E-FB4545895DA5}" name="Column9" dataDxfId="1">
+      <calculatedColumnFormula>ABS(1-Table1[[#This Row],[Column2]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2835,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35E1EEC-EFE5-4091-B144-0AA50C8576BC}">
-  <dimension ref="A1:AT86"/>
+  <dimension ref="A1:BE126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6:AT6"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ39" sqref="AZ39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2867,9 +3271,14 @@
     <col min="42" max="42" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10.44140625" customWidth="1"/>
     <col min="44" max="44" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="10.44140625" customWidth="1"/>
+    <col min="52" max="52" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.44140625" customWidth="1"/>
+    <col min="54" max="54" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>356</v>
       </c>
@@ -2996,8 +3405,38 @@
       <c r="AT1" t="s">
         <v>706</v>
       </c>
+      <c r="AV1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>704</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>706</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>848</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B2" s="3">
         <v>11</v>
       </c>
@@ -3116,8 +3555,39 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>51.61</v>
       </c>
+      <c r="AU2" s="8"/>
+      <c r="AW2">
+        <v>14</v>
+      </c>
+      <c r="AX2">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="AY2">
+        <v>34.415999999999997</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>776</v>
+      </c>
+      <c r="BA2">
+        <v>22.385999999999999</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>777</v>
+      </c>
+      <c r="BC2">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.801999999999992</v>
+      </c>
+      <c r="BD2">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>30.502673999999992</v>
+      </c>
+      <c r="BE2">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.53699999999999992</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>11</v>
       </c>
@@ -3236,8 +3706,39 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>52.242299999999993</v>
       </c>
+      <c r="AU3" s="7"/>
+      <c r="AW3">
+        <v>13</v>
+      </c>
+      <c r="AX3">
+        <v>1.389</v>
+      </c>
+      <c r="AY3">
+        <v>33.003999999999998</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>778</v>
+      </c>
+      <c r="BA3">
+        <v>23.765000000000001</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>779</v>
+      </c>
+      <c r="BC3">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.768999999999998</v>
+      </c>
+      <c r="BD3">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>22.083141000000001</v>
+      </c>
+      <c r="BE3">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.38900000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>14</v>
       </c>
@@ -3356,8 +3857,39 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>51.737400000000008</v>
       </c>
+      <c r="AU4" s="8"/>
+      <c r="AW4">
+        <v>15</v>
+      </c>
+      <c r="AX4">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="AY4">
+        <v>35.795999999999999</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>774</v>
+      </c>
+      <c r="BA4">
+        <v>20.920999999999999</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>775</v>
+      </c>
+      <c r="BC4">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.716999999999999</v>
+      </c>
+      <c r="BD4">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>40.325787000000005</v>
+      </c>
+      <c r="BE4">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.71100000000000008</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>12</v>
       </c>
@@ -3476,8 +4008,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>50.678100000000001</v>
       </c>
+      <c r="AW5">
+        <v>14</v>
+      </c>
+      <c r="AX5">
+        <v>1.544</v>
+      </c>
+      <c r="AY5">
+        <v>34.421999999999997</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>760</v>
+      </c>
+      <c r="BA5">
+        <v>22.286999999999999</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>761</v>
+      </c>
+      <c r="BC5">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.708999999999996</v>
+      </c>
+      <c r="BD5">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>30.849696000000002</v>
+      </c>
+      <c r="BE5">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.54400000000000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>13</v>
       </c>
@@ -3596,8 +4158,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>50.714999999999996</v>
       </c>
+      <c r="AW6">
+        <v>13</v>
+      </c>
+      <c r="AX6">
+        <v>1.395</v>
+      </c>
+      <c r="AY6">
+        <v>33.01</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>762</v>
+      </c>
+      <c r="BA6">
+        <v>23.666</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>763</v>
+      </c>
+      <c r="BC6">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.676000000000002</v>
+      </c>
+      <c r="BD6">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>22.387020000000003</v>
+      </c>
+      <c r="BE6">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.39500000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>15</v>
       </c>
@@ -3716,8 +4308,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>50.323</v>
       </c>
+      <c r="AW7">
+        <v>15</v>
+      </c>
+      <c r="AX7">
+        <v>1.569</v>
+      </c>
+      <c r="AY7">
+        <v>34.613</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>718</v>
+      </c>
+      <c r="BA7">
+        <v>22.059000000000001</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>719</v>
+      </c>
+      <c r="BC7">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.671999999999997</v>
+      </c>
+      <c r="BD7">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>32.246367999999997</v>
+      </c>
+      <c r="BE7">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.56899999999999995</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>14</v>
       </c>
@@ -3836,8 +4458,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>48.304200000000002</v>
       </c>
+      <c r="AW8">
+        <v>14</v>
+      </c>
+      <c r="AX8">
+        <v>1.554</v>
+      </c>
+      <c r="AY8">
+        <v>34.473999999999997</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>840</v>
+      </c>
+      <c r="BA8">
+        <v>22.19</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>841</v>
+      </c>
+      <c r="BC8">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.664000000000001</v>
+      </c>
+      <c r="BD8">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>31.391856000000004</v>
+      </c>
+      <c r="BE8">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.55400000000000005</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>11</v>
       </c>
@@ -3956,8 +4608,39 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>51.3324</v>
       </c>
+      <c r="AU9" s="8"/>
+      <c r="AW9">
+        <v>13</v>
+      </c>
+      <c r="AX9">
+        <v>1.403</v>
+      </c>
+      <c r="AY9">
+        <v>33.07</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>842</v>
+      </c>
+      <c r="BA9">
+        <v>23.577000000000002</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>843</v>
+      </c>
+      <c r="BC9">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.647000000000006</v>
+      </c>
+      <c r="BD9">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>22.828741000000004</v>
+      </c>
+      <c r="BE9">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.40300000000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>13</v>
       </c>
@@ -4076,8 +4759,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>50.837699999999998</v>
       </c>
+      <c r="AW10">
+        <v>14</v>
+      </c>
+      <c r="AX10">
+        <v>1.417</v>
+      </c>
+      <c r="AY10">
+        <v>33.201000000000001</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>720</v>
+      </c>
+      <c r="BA10">
+        <v>23.437999999999999</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>721</v>
+      </c>
+      <c r="BC10">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.638999999999996</v>
+      </c>
+      <c r="BD10">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>23.618463000000002</v>
+      </c>
+      <c r="BE10">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.41700000000000004</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>12</v>
       </c>
@@ -4196,8 +4909,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>49.790099999999995</v>
       </c>
+      <c r="AW11">
+        <v>15</v>
+      </c>
+      <c r="AX11">
+        <v>1.73</v>
+      </c>
+      <c r="AY11">
+        <v>35.853999999999999</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>838</v>
+      </c>
+      <c r="BA11">
+        <v>20.725000000000001</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>839</v>
+      </c>
+      <c r="BC11">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.579000000000001</v>
+      </c>
+      <c r="BD11">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>41.302669999999999</v>
+      </c>
+      <c r="BE11">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
@@ -4316,8 +5059,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>48.441799999999994</v>
       </c>
+      <c r="AW12">
+        <v>12</v>
+      </c>
+      <c r="AX12">
+        <v>1.2809999999999999</v>
+      </c>
+      <c r="AY12">
+        <v>31.751000000000001</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>780</v>
+      </c>
+      <c r="BA12">
+        <v>24.780999999999999</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>781</v>
+      </c>
+      <c r="BC12">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.531999999999996</v>
+      </c>
+      <c r="BD12">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>15.885491999999994</v>
+      </c>
+      <c r="BE12">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.28099999999999992</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
@@ -4436,8 +5209,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>47.947099999999999</v>
       </c>
+      <c r="AW13">
+        <v>12</v>
+      </c>
+      <c r="AX13">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="AY13">
+        <v>31.754000000000001</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>764</v>
+      </c>
+      <c r="BA13">
+        <v>24.678999999999998</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>765</v>
+      </c>
+      <c r="BC13">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.433</v>
+      </c>
+      <c r="BD13">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>16.196270999999996</v>
+      </c>
+      <c r="BE13">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.28699999999999992</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>15</v>
       </c>
@@ -4556,8 +5359,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>50.611199999999997</v>
       </c>
+      <c r="AW14">
+        <v>14</v>
+      </c>
+      <c r="AX14">
+        <v>1.446</v>
+      </c>
+      <c r="AY14">
+        <v>33.348999999999997</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>824</v>
+      </c>
+      <c r="BA14">
+        <v>23.064</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>825</v>
+      </c>
+      <c r="BC14">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.412999999999997</v>
+      </c>
+      <c r="BD14">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>25.160197999999994</v>
+      </c>
+      <c r="BE14">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.44599999999999995</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
@@ -4676,8 +5509,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>49.430399999999992</v>
       </c>
+      <c r="AW15">
+        <v>12</v>
+      </c>
+      <c r="AX15">
+        <v>1.294</v>
+      </c>
+      <c r="AY15">
+        <v>31.814</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>844</v>
+      </c>
+      <c r="BA15">
+        <v>24.59</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>845</v>
+      </c>
+      <c r="BC15">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.403999999999996</v>
+      </c>
+      <c r="BD15">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>16.582776000000003</v>
+      </c>
+      <c r="BE15">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.29400000000000004</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
@@ -4796,8 +5659,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>47.462399999999995</v>
       </c>
+      <c r="AW16">
+        <v>13</v>
+      </c>
+      <c r="AX16">
+        <v>1.306</v>
+      </c>
+      <c r="AY16">
+        <v>31.945</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>722</v>
+      </c>
+      <c r="BA16">
+        <v>24.451000000000001</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>723</v>
+      </c>
+      <c r="BC16">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.396000000000001</v>
+      </c>
+      <c r="BD16">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>17.257176000000005</v>
+      </c>
+      <c r="BE16">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.30600000000000005</v>
+      </c>
     </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>12</v>
       </c>
@@ -4916,8 +5809,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>47.385599999999997</v>
       </c>
+      <c r="AW17">
+        <v>15</v>
+      </c>
+      <c r="AX17">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="AY17">
+        <v>34.726999999999997</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>822</v>
+      </c>
+      <c r="BA17">
+        <v>21.597000000000001</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>823</v>
+      </c>
+      <c r="BC17">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.323999999999998</v>
+      </c>
+      <c r="BD17">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>34.244992000000003</v>
+      </c>
+      <c r="BE17">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.6080000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>11</v>
       </c>
@@ -5036,8 +5959,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>46.834999999999994</v>
       </c>
+      <c r="AW18">
+        <v>15</v>
+      </c>
+      <c r="AX18">
+        <v>1.577</v>
+      </c>
+      <c r="AY18">
+        <v>34.454999999999998</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>836</v>
+      </c>
+      <c r="BA18">
+        <v>21.847000000000001</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>837</v>
+      </c>
+      <c r="BC18">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.302</v>
+      </c>
+      <c r="BD18">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>32.486253999999995</v>
+      </c>
+      <c r="BE18">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.57699999999999996</v>
+      </c>
     </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>13</v>
       </c>
@@ -5156,8 +6109,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>48.165599999999998</v>
       </c>
+      <c r="AW19">
+        <v>14</v>
+      </c>
+      <c r="AX19">
+        <v>1.512</v>
+      </c>
+      <c r="AY19">
+        <v>33.817</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>770</v>
+      </c>
+      <c r="BA19">
+        <v>22.367000000000001</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>771</v>
+      </c>
+      <c r="BC19">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.183999999999997</v>
+      </c>
+      <c r="BD19">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>28.766207999999999</v>
+      </c>
+      <c r="BE19">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.51200000000000001</v>
+      </c>
     </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>12</v>
       </c>
@@ -5276,8 +6259,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>46.539399999999993</v>
       </c>
+      <c r="AW20">
+        <v>13</v>
+      </c>
+      <c r="AX20">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="AY20">
+        <v>32.414999999999999</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>772</v>
+      </c>
+      <c r="BA20">
+        <v>23.756</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>773</v>
+      </c>
+      <c r="BC20">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.170999999999999</v>
+      </c>
+      <c r="BD20">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>20.446244000000007</v>
+      </c>
+      <c r="BE20">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.3640000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>11</v>
       </c>
@@ -5396,8 +6409,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>48.741300000000003</v>
       </c>
+      <c r="AW21">
+        <v>14</v>
+      </c>
+      <c r="AX21">
+        <v>1.52</v>
+      </c>
+      <c r="AY21">
+        <v>33.853000000000002</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>828</v>
+      </c>
+      <c r="BA21">
+        <v>22.27</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>829</v>
+      </c>
+      <c r="BC21">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.123000000000005</v>
+      </c>
+      <c r="BD21">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>29.183960000000003</v>
+      </c>
+      <c r="BE21">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>15</v>
       </c>
@@ -5516,8 +6559,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>48.267000000000003</v>
       </c>
+      <c r="AW22">
+        <v>13</v>
+      </c>
+      <c r="AX22">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="AY22">
+        <v>32.445</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>830</v>
+      </c>
+      <c r="BA22">
+        <v>23.652999999999999</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>831</v>
+      </c>
+      <c r="BC22">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.097999999999999</v>
+      </c>
+      <c r="BD22">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>20.868456000000005</v>
+      </c>
+      <c r="BE22">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.37200000000000011</v>
+      </c>
     </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>13</v>
       </c>
@@ -5636,8 +6709,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>47.244</v>
       </c>
+      <c r="AW23">
+        <v>15</v>
+      </c>
+      <c r="AX23">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="AY23">
+        <v>35.194000000000003</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>768</v>
+      </c>
+      <c r="BA23">
+        <v>20.899000000000001</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>769</v>
+      </c>
+      <c r="BC23">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.093000000000004</v>
+      </c>
+      <c r="BD23">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>38.367612000000001</v>
+      </c>
+      <c r="BE23">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.68399999999999994</v>
+      </c>
     </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>12</v>
       </c>
@@ -5756,8 +6859,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>45.979199999999999</v>
       </c>
+      <c r="AW24">
+        <v>11</v>
+      </c>
+      <c r="AX24">
+        <v>1.234</v>
+      </c>
+      <c r="AY24">
+        <v>30.97</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>726</v>
+      </c>
+      <c r="BA24">
+        <v>25.103999999999999</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>727</v>
+      </c>
+      <c r="BC24">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.073999999999998</v>
+      </c>
+      <c r="BD24">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>13.121315999999998</v>
+      </c>
+      <c r="BE24">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.23399999999999999</v>
+      </c>
     </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>15</v>
       </c>
@@ -5876,8 +7009,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>45.467700000000001</v>
       </c>
+      <c r="AW25">
+        <v>15</v>
+      </c>
+      <c r="AX25">
+        <v>1.752</v>
+      </c>
+      <c r="AY25">
+        <v>35.683999999999997</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>758</v>
+      </c>
+      <c r="BA25">
+        <v>20.370999999999999</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>759</v>
+      </c>
+      <c r="BC25">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.054999999999993</v>
+      </c>
+      <c r="BD25">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>42.153359999999992</v>
+      </c>
+      <c r="BE25">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.752</v>
+      </c>
     </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>14</v>
       </c>
@@ -5996,8 +7159,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>48.355200000000004</v>
       </c>
+      <c r="AW26">
+        <v>14</v>
+      </c>
+      <c r="AX26">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="AY26">
+        <v>33.207999999999998</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>814</v>
+      </c>
+      <c r="BA26">
+        <v>22.831</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>815</v>
+      </c>
+      <c r="BC26">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.039000000000001</v>
+      </c>
+      <c r="BD26">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>25.497745000000005</v>
+      </c>
+      <c r="BE26">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.45500000000000007</v>
+      </c>
     </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>14</v>
       </c>
@@ -6116,8 +7309,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>47.462800000000009</v>
       </c>
+      <c r="AW27">
+        <v>15</v>
+      </c>
+      <c r="AX27">
+        <v>1.694</v>
+      </c>
+      <c r="AY27">
+        <v>35.231999999999999</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>826</v>
+      </c>
+      <c r="BA27">
+        <v>20.803999999999998</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>827</v>
+      </c>
+      <c r="BC27">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.036000000000001</v>
+      </c>
+      <c r="BD27">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>38.888984000000001</v>
+      </c>
+      <c r="BE27">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.69399999999999995</v>
+      </c>
     </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>12</v>
       </c>
@@ -6236,8 +7459,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>46.910800000000002</v>
       </c>
+      <c r="AW28">
+        <v>13</v>
+      </c>
+      <c r="AX28">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="AY28">
+        <v>31.798999999999999</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>816</v>
+      </c>
+      <c r="BA28">
+        <v>24.213000000000001</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>817</v>
+      </c>
+      <c r="BC28">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>56.012</v>
+      </c>
+      <c r="BD28">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>17.531755999999998</v>
+      </c>
+      <c r="BE28">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.31299999999999994</v>
+      </c>
     </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>15</v>
       </c>
@@ -6356,8 +7609,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>44.988000000000007</v>
       </c>
+      <c r="AW29">
+        <v>11</v>
+      </c>
+      <c r="AX29">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="AY29">
+        <v>30.972999999999999</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>766</v>
+      </c>
+      <c r="BA29">
+        <v>25.001999999999999</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>767</v>
+      </c>
+      <c r="BC29">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.974999999999994</v>
+      </c>
+      <c r="BD29">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>13.378025000000004</v>
+      </c>
+      <c r="BE29">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.2390000000000001</v>
+      </c>
     </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>11</v>
       </c>
@@ -6476,8 +7759,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>46.440000000000005</v>
       </c>
+      <c r="AW30">
+        <v>15</v>
+      </c>
+      <c r="AX30">
+        <v>1.619</v>
+      </c>
+      <c r="AY30">
+        <v>34.585000000000001</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>812</v>
+      </c>
+      <c r="BA30">
+        <v>21.363</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>813</v>
+      </c>
+      <c r="BC30">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.948</v>
+      </c>
+      <c r="BD30">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>34.631811999999996</v>
+      </c>
+      <c r="BE30">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.61899999999999999</v>
+      </c>
     </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>12</v>
       </c>
@@ -6596,8 +7909,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>44.1</v>
       </c>
+      <c r="AW31">
+        <v>11</v>
+      </c>
+      <c r="AX31">
+        <v>1.246</v>
+      </c>
+      <c r="AY31">
+        <v>31.033000000000001</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>846</v>
+      </c>
+      <c r="BA31">
+        <v>24.913</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>847</v>
+      </c>
+      <c r="BC31">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.945999999999998</v>
+      </c>
+      <c r="BD31">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>13.762715999999999</v>
+      </c>
+      <c r="BE31">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.246</v>
+      </c>
     </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>14</v>
       </c>
@@ -6716,8 +8059,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>41.607500000000002</v>
       </c>
+      <c r="AW32">
+        <v>12</v>
+      </c>
+      <c r="AX32">
+        <v>1.258</v>
+      </c>
+      <c r="AY32">
+        <v>31.164000000000001</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>724</v>
+      </c>
+      <c r="BA32">
+        <v>24.774000000000001</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>725</v>
+      </c>
+      <c r="BC32">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.938000000000002</v>
+      </c>
+      <c r="BD32">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>14.432004000000001</v>
+      </c>
+      <c r="BE32">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.25800000000000001</v>
+      </c>
     </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>11</v>
       </c>
@@ -6836,8 +8209,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>45.075499999999998</v>
       </c>
+      <c r="AW33">
+        <v>12</v>
+      </c>
+      <c r="AX33">
+        <v>1.264</v>
+      </c>
+      <c r="AY33">
+        <v>31.189</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>832</v>
+      </c>
+      <c r="BA33">
+        <v>24.666</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>833</v>
+      </c>
+      <c r="BC33">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.855000000000004</v>
+      </c>
+      <c r="BD33">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>14.745720000000002</v>
+      </c>
+      <c r="BE33">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.26400000000000001</v>
+      </c>
     </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>13</v>
       </c>
@@ -6956,8 +8359,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>43.579499999999996</v>
       </c>
+      <c r="AW34">
+        <v>12</v>
+      </c>
+      <c r="AX34">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="AY34">
+        <v>30.545000000000002</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>818</v>
+      </c>
+      <c r="BA34">
+        <v>25.228000000000002</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>819</v>
+      </c>
+      <c r="BC34">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.773000000000003</v>
+      </c>
+      <c r="BD34">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>11.768103000000005</v>
+      </c>
+      <c r="BE34">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.21100000000000008</v>
+      </c>
     </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>12</v>
       </c>
@@ -7076,8 +8509,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>42.4405</v>
       </c>
+      <c r="AW35">
+        <v>11</v>
+      </c>
+      <c r="AX35">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="AY35">
+        <v>30.408000000000001</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>834</v>
+      </c>
+      <c r="BA35">
+        <v>24.989000000000001</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>835</v>
+      </c>
+      <c r="BC35">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.397000000000006</v>
+      </c>
+      <c r="BD35">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>12.021149000000007</v>
+      </c>
+      <c r="BE35">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.21700000000000008</v>
+      </c>
     </row>
-    <row r="36" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>11</v>
       </c>
@@ -7196,8 +8659,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>41.955999999999996</v>
       </c>
+      <c r="AW36">
+        <v>11</v>
+      </c>
+      <c r="AX36">
+        <v>1.165</v>
+      </c>
+      <c r="AY36">
+        <v>29.763999999999999</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>820</v>
+      </c>
+      <c r="BA36">
+        <v>25.550999999999998</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>821</v>
+      </c>
+      <c r="BC36">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.314999999999998</v>
+      </c>
+      <c r="BD36">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>9.1269750000000016</v>
+      </c>
+      <c r="BE36">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.16500000000000004</v>
+      </c>
     </row>
-    <row r="37" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>12</v>
       </c>
@@ -7316,8 +8809,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>44.066400000000002</v>
       </c>
+      <c r="AW37">
+        <v>13</v>
+      </c>
+      <c r="AX37">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="AY37">
+        <v>28.245999999999999</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>732</v>
+      </c>
+      <c r="BA37">
+        <v>27.035</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>733</v>
+      </c>
+      <c r="BC37">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.280999999999999</v>
+      </c>
+      <c r="BD37">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>2.4876449999999961</v>
+      </c>
+      <c r="BE37">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>4.4999999999999929E-2</v>
+      </c>
     </row>
-    <row r="38" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>11</v>
       </c>
@@ -7436,8 +8959,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>43.856399999999994</v>
       </c>
+      <c r="AW38">
+        <v>14</v>
+      </c>
+      <c r="AX38">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="AY38">
+        <v>29.608000000000001</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>730</v>
+      </c>
+      <c r="BA38">
+        <v>25.606000000000002</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>731</v>
+      </c>
+      <c r="BC38">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.213999999999999</v>
+      </c>
+      <c r="BD38">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>8.6133839999999946</v>
+      </c>
+      <c r="BE38">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.15599999999999992</v>
+      </c>
     </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>13</v>
       </c>
@@ -7556,8 +9109,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>43.2348</v>
       </c>
+      <c r="AW39">
+        <v>11</v>
+      </c>
+      <c r="AX39">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AY39">
+        <v>27.449000000000002</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>736</v>
+      </c>
+      <c r="BA39">
+        <v>27.760999999999999</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>737</v>
+      </c>
+      <c r="BC39">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.21</v>
+      </c>
+      <c r="BD39">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>0.60731000000000057</v>
+      </c>
+      <c r="BE39">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>1.100000000000001E-2</v>
+      </c>
     </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>13</v>
       </c>
@@ -7676,8 +9259,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>41.479199999999992</v>
       </c>
+      <c r="AW40">
+        <v>11</v>
+      </c>
+      <c r="AX40">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AY40">
+        <v>20.27</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>575</v>
+      </c>
+      <c r="BA40">
+        <v>34.94</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>576</v>
+      </c>
+      <c r="BC40">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.209999999999994</v>
+      </c>
+      <c r="BD40">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>23.188199999999998</v>
+      </c>
+      <c r="BE40">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.42000000000000004</v>
+      </c>
     </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>14</v>
       </c>
@@ -7796,8 +9409,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>43.093600000000002</v>
       </c>
+      <c r="AW41" s="2">
+        <v>12</v>
+      </c>
+      <c r="AX41" s="2">
+        <v>1.004</v>
+      </c>
+      <c r="AY41" s="2">
+        <v>27.64</v>
+      </c>
+      <c r="AZ41" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="BA41" s="2">
+        <v>27.533000000000001</v>
+      </c>
+      <c r="BB41" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="BC41" s="2">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.173000000000002</v>
+      </c>
+      <c r="BD41" s="2">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>0.22069200000000019</v>
+      </c>
+      <c r="BE41" s="2">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
     </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>11</v>
       </c>
@@ -7916,8 +9559,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>40.573599999999999</v>
       </c>
+      <c r="AW42">
+        <v>15</v>
+      </c>
+      <c r="AX42">
+        <v>1.284</v>
+      </c>
+      <c r="AY42">
+        <v>30.974</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>728</v>
+      </c>
+      <c r="BA42">
+        <v>24.126999999999999</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>729</v>
+      </c>
+      <c r="BC42">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>55.100999999999999</v>
+      </c>
+      <c r="BD42">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>15.648684000000001</v>
+      </c>
+      <c r="BE42">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.28400000000000003</v>
+      </c>
     </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>13</v>
       </c>
@@ -8036,8 +9709,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>42.030900000000003</v>
       </c>
+      <c r="AW43">
+        <v>11</v>
+      </c>
+      <c r="AX43">
+        <v>0.68</v>
+      </c>
+      <c r="AY43">
+        <v>22.23</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>595</v>
+      </c>
+      <c r="BA43">
+        <v>32.6</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>596</v>
+      </c>
+      <c r="BC43">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>54.83</v>
+      </c>
+      <c r="BD43">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>17.545599999999997</v>
+      </c>
+      <c r="BE43">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.31999999999999995</v>
+      </c>
     </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>11</v>
       </c>
@@ -8156,8 +9859,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>38.393999999999998</v>
       </c>
+      <c r="AW44">
+        <v>11</v>
+      </c>
+      <c r="AX44">
+        <v>0.61</v>
+      </c>
+      <c r="AY44">
+        <v>20.77</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>671</v>
+      </c>
+      <c r="BA44">
+        <v>33.94</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>672</v>
+      </c>
+      <c r="BC44">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>54.709999999999994</v>
+      </c>
+      <c r="BD44">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>21.3369</v>
+      </c>
+      <c r="BE44">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>15</v>
       </c>
@@ -8276,8 +10009,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>40.5916</v>
       </c>
+      <c r="AW45">
+        <v>11</v>
+      </c>
+      <c r="AX45">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="AY45">
+        <v>26.904</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>800</v>
+      </c>
+      <c r="BA45">
+        <v>27.753</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>801</v>
+      </c>
+      <c r="BC45">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>54.656999999999996</v>
+      </c>
+      <c r="BD45">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.6943670000000013</v>
+      </c>
+      <c r="BE45">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>3.1000000000000028E-2</v>
+      </c>
     </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>14</v>
       </c>
@@ -8396,8 +10159,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>40.105199999999996</v>
       </c>
+      <c r="AW46">
+        <v>14</v>
+      </c>
+      <c r="AX46">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="AY46">
+        <v>27.873999999999999</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>794</v>
+      </c>
+      <c r="BA46">
+        <v>26.675999999999998</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>795</v>
+      </c>
+      <c r="BC46">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>54.55</v>
+      </c>
+      <c r="BD46">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>2.4547499999999962</v>
+      </c>
+      <c r="BE46">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>4.4999999999999929E-2</v>
+      </c>
     </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>11</v>
       </c>
@@ -8516,8 +10309,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>38.988</v>
       </c>
+      <c r="AW47">
+        <v>12</v>
+      </c>
+      <c r="AX47">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="AY47">
+        <v>27.067</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>798</v>
+      </c>
+      <c r="BA47">
+        <v>27.391999999999999</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>799</v>
+      </c>
+      <c r="BC47">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>54.459000000000003</v>
+      </c>
+      <c r="BD47">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>0.65350800000000064</v>
+      </c>
+      <c r="BE47">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
     </row>
-    <row r="48" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>12</v>
       </c>
@@ -8636,8 +10459,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>38.243200000000002</v>
       </c>
+      <c r="AW48" s="2">
+        <v>13</v>
+      </c>
+      <c r="AX48" s="2">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="AY48" s="2">
+        <v>27.254999999999999</v>
+      </c>
+      <c r="AZ48" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="BA48" s="2">
+        <v>27.161000000000001</v>
+      </c>
+      <c r="BB48" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="BC48" s="2">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>54.415999999999997</v>
+      </c>
+      <c r="BD48" s="2">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>0.16324799999999409</v>
+      </c>
+      <c r="BE48" s="2">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>2.9999999999998916E-3</v>
+      </c>
     </row>
-    <row r="49" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>14</v>
       </c>
@@ -8756,8 +10609,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>37.574399999999997</v>
       </c>
+      <c r="AW49">
+        <v>15</v>
+      </c>
+      <c r="AX49">
+        <v>1.161</v>
+      </c>
+      <c r="AY49">
+        <v>29.204000000000001</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>792</v>
+      </c>
+      <c r="BA49">
+        <v>25.161000000000001</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>793</v>
+      </c>
+      <c r="BC49">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>54.365000000000002</v>
+      </c>
+      <c r="BD49">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>8.7527650000000019</v>
+      </c>
+      <c r="BE49">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.16100000000000003</v>
+      </c>
     </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>13</v>
       </c>
@@ -8876,8 +10759,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>39.675000000000004</v>
       </c>
+      <c r="AW50">
+        <v>12</v>
+      </c>
+      <c r="AX50">
+        <v>0.65</v>
+      </c>
+      <c r="AY50">
+        <v>21.28</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>573</v>
+      </c>
+      <c r="BA50">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>574</v>
+      </c>
+      <c r="BC50">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>54.050000000000004</v>
+      </c>
+      <c r="BD50">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>18.9175</v>
+      </c>
+      <c r="BE50">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>15</v>
       </c>
@@ -8996,8 +10909,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>39.269999999999996</v>
       </c>
+      <c r="AW51">
+        <v>15</v>
+      </c>
+      <c r="AX51">
+        <v>1.083</v>
+      </c>
+      <c r="AY51">
+        <v>27.952999999999999</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>782</v>
+      </c>
+      <c r="BA51">
+        <v>25.811</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>783</v>
+      </c>
+      <c r="BC51">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>53.763999999999996</v>
+      </c>
+      <c r="BD51">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>4.4624119999999978</v>
+      </c>
+      <c r="BE51">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>8.2999999999999963E-2</v>
+      </c>
     </row>
-    <row r="52" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>15</v>
       </c>
@@ -9116,8 +11059,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>37.102499999999999</v>
       </c>
+      <c r="AW52">
+        <v>11</v>
+      </c>
+      <c r="AX52">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="AY52">
+        <v>24.446999999999999</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>716</v>
+      </c>
+      <c r="BA52">
+        <v>29.314</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>717</v>
+      </c>
+      <c r="BC52">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>53.760999999999996</v>
+      </c>
+      <c r="BD52">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>8.9243260000000006</v>
+      </c>
+      <c r="BE52">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.16600000000000004</v>
+      </c>
     </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>15</v>
       </c>
@@ -9236,8 +11209,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>33.603400000000001</v>
       </c>
+      <c r="AW53" s="2">
+        <v>14</v>
+      </c>
+      <c r="AX53" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="AY53" s="2">
+        <v>26.785</v>
+      </c>
+      <c r="AZ53" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="BA53" s="2">
+        <v>26.911999999999999</v>
+      </c>
+      <c r="BB53" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="BC53" s="2">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>53.697000000000003</v>
+      </c>
+      <c r="BD53" s="2">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>0.26848500000000025</v>
+      </c>
+      <c r="BE53" s="2">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>13</v>
       </c>
@@ -9356,8 +11359,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>38.324999999999996</v>
       </c>
+      <c r="AW54">
+        <v>12</v>
+      </c>
+      <c r="AX54">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="AY54">
+        <v>26.257999999999999</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>788</v>
+      </c>
+      <c r="BA54">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>789</v>
+      </c>
+      <c r="BC54">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>53.585999999999999</v>
+      </c>
+      <c r="BD54">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>2.0898540000000017</v>
+      </c>
+      <c r="BE54">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>3.9000000000000035E-2</v>
+      </c>
     </row>
-    <row r="55" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>14</v>
       </c>
@@ -9476,8 +11509,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>36.419699999999999</v>
       </c>
+      <c r="AW55">
+        <v>13</v>
+      </c>
+      <c r="AX55">
+        <v>0.98</v>
+      </c>
+      <c r="AY55">
+        <v>26.445</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>786</v>
+      </c>
+      <c r="BA55">
+        <v>26.991</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>787</v>
+      </c>
+      <c r="BC55">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>53.436</v>
+      </c>
+      <c r="BD55">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.068720000000001</v>
+      </c>
+      <c r="BE55">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
     </row>
-    <row r="56" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>15</v>
       </c>
@@ -9596,8 +11659,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>34.675199999999997</v>
       </c>
+      <c r="AW56">
+        <v>12</v>
+      </c>
+      <c r="AX56">
+        <v>0.76</v>
+      </c>
+      <c r="AY56">
+        <v>23.09</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>593</v>
+      </c>
+      <c r="BA56">
+        <v>30.32</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>594</v>
+      </c>
+      <c r="BC56">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>53.41</v>
+      </c>
+      <c r="BD56">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>12.818399999999999</v>
+      </c>
+      <c r="BE56">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="57" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>14</v>
       </c>
@@ -9716,8 +11809,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>37.284399999999998</v>
       </c>
+      <c r="AW57">
+        <v>11</v>
+      </c>
+      <c r="AX57">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="AY57">
+        <v>25.568000000000001</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>790</v>
+      </c>
+      <c r="BA57">
+        <v>27.742000000000001</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>791</v>
+      </c>
+      <c r="BC57">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>53.31</v>
+      </c>
+      <c r="BD57">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>4.158179999999998</v>
+      </c>
+      <c r="BE57">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>7.7999999999999958E-2</v>
+      </c>
     </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>12</v>
       </c>
@@ -9836,8 +11959,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>36.189599999999999</v>
       </c>
+      <c r="AW58">
+        <v>12</v>
+      </c>
+      <c r="AX58">
+        <v>0.68</v>
+      </c>
+      <c r="AY58">
+        <v>21.59</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>669</v>
+      </c>
+      <c r="BA58">
+        <v>31.63</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>670</v>
+      </c>
+      <c r="BC58">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>53.22</v>
+      </c>
+      <c r="BD58">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>17.030399999999997</v>
+      </c>
+      <c r="BE58">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.31999999999999995</v>
+      </c>
     </row>
-    <row r="59" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>13</v>
       </c>
@@ -9956,8 +12109,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>34.516800000000003</v>
       </c>
+      <c r="AW59">
+        <v>13</v>
+      </c>
+      <c r="AX59">
+        <v>0.85</v>
+      </c>
+      <c r="AY59">
+        <v>24.32</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>591</v>
+      </c>
+      <c r="BA59">
+        <v>28.71</v>
+      </c>
+      <c r="BB59" t="s">
+        <v>592</v>
+      </c>
+      <c r="BC59">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>53.03</v>
+      </c>
+      <c r="BD59">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>7.9545000000000012</v>
+      </c>
+      <c r="BE59">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.15000000000000002</v>
+      </c>
     </row>
-    <row r="60" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>12</v>
       </c>
@@ -10076,8 +12259,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>34.081600000000009</v>
       </c>
+      <c r="AW60">
+        <v>14</v>
+      </c>
+      <c r="AX60">
+        <v>0.97</v>
+      </c>
+      <c r="AY60">
+        <v>26.05</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>619</v>
+      </c>
+      <c r="BA60">
+        <v>26.87</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>620</v>
+      </c>
+      <c r="BC60">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.92</v>
+      </c>
+      <c r="BD60">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.5876000000000015</v>
+      </c>
+      <c r="BE60">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
     </row>
-    <row r="61" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>14</v>
       </c>
@@ -10196,8 +12409,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>35.132500000000007</v>
       </c>
+      <c r="AW61" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX61" s="2">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="AY61" s="2">
+        <v>26.465</v>
+      </c>
+      <c r="AZ61" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="BA61" s="2">
+        <v>26.44</v>
+      </c>
+      <c r="BB61" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="BC61" s="2">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.905000000000001</v>
+      </c>
+      <c r="BD61" s="2">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>5.2904999999994172E-2</v>
+      </c>
+      <c r="BE61" s="2">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>9.9999999999988987E-4</v>
+      </c>
     </row>
-    <row r="62" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>15</v>
       </c>
@@ -10264,25 +12507,25 @@
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
         <v>44.930000000000007</v>
       </c>
-      <c r="AC62">
+      <c r="AC62" s="11">
         <v>12</v>
       </c>
-      <c r="AD62">
+      <c r="AD62" s="11">
         <v>0.77</v>
       </c>
-      <c r="AE62">
+      <c r="AE62" s="11">
         <v>22.59</v>
       </c>
-      <c r="AF62" t="s">
+      <c r="AF62" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="AG62">
+      <c r="AG62" s="11">
         <v>29.27</v>
       </c>
-      <c r="AH62" t="s">
+      <c r="AH62" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="AI62">
+      <c r="AI62" s="11">
         <f>Table6[[#This Row],[Column3]]+Table6[[#This Row],[Column5]]</f>
         <v>51.86</v>
       </c>
@@ -10316,8 +12559,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>30.680000000000003</v>
       </c>
+      <c r="AW62">
+        <v>11</v>
+      </c>
+      <c r="AX62">
+        <v>0.75</v>
+      </c>
+      <c r="AY62">
+        <v>22.67</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>585</v>
+      </c>
+      <c r="BA62">
+        <v>30.23</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>586</v>
+      </c>
+      <c r="BC62">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.900000000000006</v>
+      </c>
+      <c r="BD62">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>13.225000000000001</v>
+      </c>
+      <c r="BE62">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="63" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>12</v>
       </c>
@@ -10384,25 +12657,25 @@
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
         <v>43.68</v>
       </c>
-      <c r="AC63" s="1">
+      <c r="AC63" s="10">
         <v>15</v>
       </c>
-      <c r="AD63" s="1">
+      <c r="AD63" s="10">
         <v>0.87</v>
       </c>
-      <c r="AE63" s="1">
+      <c r="AE63" s="10">
         <v>21.01</v>
       </c>
-      <c r="AF63" s="1" t="s">
+      <c r="AF63" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="AG63" s="1">
+      <c r="AG63" s="10">
         <v>24.06</v>
       </c>
-      <c r="AH63" s="1" t="s">
+      <c r="AH63" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="AI63" s="1">
+      <c r="AI63" s="10">
         <f>Table6[[#This Row],[Column3]]+Table6[[#This Row],[Column5]]</f>
         <v>45.07</v>
       </c>
@@ -10436,8 +12709,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>31.910399999999999</v>
       </c>
+      <c r="AW63">
+        <v>13</v>
+      </c>
+      <c r="AX63">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="AY63">
+        <v>25.946000000000002</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>712</v>
+      </c>
+      <c r="BA63">
+        <v>26.864000000000001</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>713</v>
+      </c>
+      <c r="BC63">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.81</v>
+      </c>
+      <c r="BD63">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.7955400000000017</v>
+      </c>
+      <c r="BE63">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>3.400000000000003E-2</v>
+      </c>
     </row>
-    <row r="64" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>11</v>
       </c>
@@ -10556,8 +12859,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>33.373099999999994</v>
       </c>
+      <c r="AW64" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX64" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="AY64" s="2">
+        <v>26.24</v>
+      </c>
+      <c r="AZ64" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="BA64" s="2">
+        <v>26.53</v>
+      </c>
+      <c r="BB64" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="BC64" s="2">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.769999999999996</v>
+      </c>
+      <c r="BD64" s="2">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>0.52770000000000039</v>
+      </c>
+      <c r="BE64" s="2">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
     </row>
-    <row r="65" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>13</v>
       </c>
@@ -10676,8 +13009,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>32.021799999999992</v>
       </c>
+      <c r="AW65">
+        <v>13</v>
+      </c>
+      <c r="AX65">
+        <v>0.76</v>
+      </c>
+      <c r="AY65">
+        <v>22.79</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>667</v>
+      </c>
+      <c r="BA65">
+        <v>29.98</v>
+      </c>
+      <c r="BB65" t="s">
+        <v>668</v>
+      </c>
+      <c r="BC65">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.769999999999996</v>
+      </c>
+      <c r="BD65">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>12.664799999999998</v>
+      </c>
+      <c r="BE65">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="66" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>15</v>
       </c>
@@ -10796,8 +13159,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>28.351799999999997</v>
       </c>
+      <c r="AW66">
+        <v>15</v>
+      </c>
+      <c r="AX66">
+        <v>0.96</v>
+      </c>
+      <c r="AY66">
+        <v>25.85</v>
+      </c>
+      <c r="AZ66" t="s">
+        <v>587</v>
+      </c>
+      <c r="BA66">
+        <v>26.87</v>
+      </c>
+      <c r="BB66" t="s">
+        <v>588</v>
+      </c>
+      <c r="BC66">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.72</v>
+      </c>
+      <c r="BD66">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>2.1088000000000018</v>
+      </c>
+      <c r="BE66">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
     </row>
-    <row r="67" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>13</v>
       </c>
@@ -10916,8 +13309,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>27.770399999999999</v>
       </c>
+      <c r="AW67">
+        <v>14</v>
+      </c>
+      <c r="AX67">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="AY67">
+        <v>26.14</v>
+      </c>
+      <c r="AZ67" t="s">
+        <v>710</v>
+      </c>
+      <c r="BA67">
+        <v>26.533999999999999</v>
+      </c>
+      <c r="BB67" t="s">
+        <v>711</v>
+      </c>
+      <c r="BC67">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.673999999999999</v>
+      </c>
+      <c r="BD67">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>0.79011000000000065</v>
+      </c>
+      <c r="BE67">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>1.5000000000000013E-2</v>
+      </c>
     </row>
-    <row r="68" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>13</v>
       </c>
@@ -11036,8 +13459,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>24.32</v>
       </c>
+      <c r="AW68">
+        <v>14</v>
+      </c>
+      <c r="AX68">
+        <v>0.92</v>
+      </c>
+      <c r="AY68">
+        <v>25.22</v>
+      </c>
+      <c r="AZ68" t="s">
+        <v>589</v>
+      </c>
+      <c r="BA68">
+        <v>27.34</v>
+      </c>
+      <c r="BB68" t="s">
+        <v>590</v>
+      </c>
+      <c r="BC68">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.56</v>
+      </c>
+      <c r="BD68">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>4.2047999999999979</v>
+      </c>
+      <c r="BE68">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>7.999999999999996E-2</v>
+      </c>
     </row>
-    <row r="69" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>12</v>
       </c>
@@ -11156,8 +13609,38 @@
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
         <v>20.504000000000001</v>
       </c>
+      <c r="AW69">
+        <v>13</v>
+      </c>
+      <c r="AX69">
+        <v>0.73</v>
+      </c>
+      <c r="AY69">
+        <v>22.07</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>571</v>
+      </c>
+      <c r="BA69">
+        <v>30.43</v>
+      </c>
+      <c r="BB69" t="s">
+        <v>572</v>
+      </c>
+      <c r="BC69">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.5</v>
+      </c>
+      <c r="BD69">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>14.175000000000001</v>
+      </c>
+      <c r="BE69">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="70" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>12</v>
       </c>
@@ -11250,8 +13733,38 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>28.802099999999999</v>
       </c>
+      <c r="AW70">
+        <v>12</v>
+      </c>
+      <c r="AX70">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="AY70">
+        <v>25.228000000000002</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>714</v>
+      </c>
+      <c r="BA70">
+        <v>27.25</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>715</v>
+      </c>
+      <c r="BC70">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.478000000000002</v>
+      </c>
+      <c r="BD70">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>3.8833719999999978</v>
+      </c>
+      <c r="BE70">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>7.3999999999999955E-2</v>
+      </c>
     </row>
-    <row r="71" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>14</v>
       </c>
@@ -11318,8 +13831,38 @@
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
         <v>45.22</v>
       </c>
+      <c r="AW71">
+        <v>12</v>
+      </c>
+      <c r="AX71">
+        <v>0.84</v>
+      </c>
+      <c r="AY71">
+        <v>23.87</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>623</v>
+      </c>
+      <c r="BA71">
+        <v>28.59</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>624</v>
+      </c>
+      <c r="BC71">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.46</v>
+      </c>
+      <c r="BD71">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>8.3936000000000011</v>
+      </c>
+      <c r="BE71">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.16000000000000003</v>
+      </c>
     </row>
-    <row r="72" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>14</v>
       </c>
@@ -11364,8 +13907,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>43.36</v>
       </c>
+      <c r="AW72">
+        <v>14</v>
+      </c>
+      <c r="AX72">
+        <v>0.97</v>
+      </c>
+      <c r="AY72">
+        <v>25.77</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA72">
+        <v>26.64</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>628</v>
+      </c>
+      <c r="BC72">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.41</v>
+      </c>
+      <c r="BD72">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.5723000000000014</v>
+      </c>
+      <c r="BE72">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
     </row>
-    <row r="73" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>11</v>
       </c>
@@ -11410,8 +13983,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>43.269999999999996</v>
       </c>
+      <c r="AW73">
+        <v>13</v>
+      </c>
+      <c r="AX73">
+        <v>0.93</v>
+      </c>
+      <c r="AY73">
+        <v>25.24</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>621</v>
+      </c>
+      <c r="BA73">
+        <v>27.17</v>
+      </c>
+      <c r="BB73" t="s">
+        <v>622</v>
+      </c>
+      <c r="BC73">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.41</v>
+      </c>
+      <c r="BD73">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>3.6686999999999972</v>
+      </c>
+      <c r="BE73">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
     </row>
-    <row r="74" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>15</v>
       </c>
@@ -11456,8 +14059,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>43.06</v>
       </c>
+      <c r="AW74">
+        <v>11</v>
+      </c>
+      <c r="AX74">
+        <v>0.75</v>
+      </c>
+      <c r="AY74">
+        <v>22.38</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>633</v>
+      </c>
+      <c r="BA74">
+        <v>29.98</v>
+      </c>
+      <c r="BB74" t="s">
+        <v>634</v>
+      </c>
+      <c r="BC74">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.36</v>
+      </c>
+      <c r="BD74">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>13.09</v>
+      </c>
+      <c r="BE74">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="75" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>14</v>
       </c>
@@ -11502,8 +14135,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>42.97</v>
       </c>
+      <c r="AW75" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX75" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="AY75" s="2">
+        <v>25.96</v>
+      </c>
+      <c r="AZ75" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="BA75" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="BB75" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="BC75" s="2">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.260000000000005</v>
+      </c>
+      <c r="BD75" s="2">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>0.52260000000000051</v>
+      </c>
+      <c r="BE75" s="2">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
     </row>
-    <row r="76" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>15</v>
       </c>
@@ -11548,8 +14211,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>42.31</v>
       </c>
+      <c r="AW76">
+        <v>14</v>
+      </c>
+      <c r="AX76">
+        <v>0.84</v>
+      </c>
+      <c r="AY76">
+        <v>23.9</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>665</v>
+      </c>
+      <c r="BA76">
+        <v>28.31</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>666</v>
+      </c>
+      <c r="BC76">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>52.209999999999994</v>
+      </c>
+      <c r="BD76">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>8.3536000000000001</v>
+      </c>
+      <c r="BE76">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.16000000000000003</v>
+      </c>
     </row>
-    <row r="77" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>15</v>
       </c>
@@ -11594,8 +14287,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>42.25</v>
       </c>
+      <c r="AW77">
+        <v>12</v>
+      </c>
+      <c r="AX77">
+        <v>0.83</v>
+      </c>
+      <c r="AY77">
+        <v>23.58</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>631</v>
+      </c>
+      <c r="BA77">
+        <v>28.34</v>
+      </c>
+      <c r="BB77" t="s">
+        <v>632</v>
+      </c>
+      <c r="BC77">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.92</v>
+      </c>
+      <c r="BD77">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>8.8264000000000031</v>
+      </c>
+      <c r="BE77">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.17000000000000004</v>
+      </c>
     </row>
-    <row r="78" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>15</v>
       </c>
@@ -11640,8 +14363,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>42.1</v>
       </c>
+      <c r="AW78">
+        <v>13</v>
+      </c>
+      <c r="AX78">
+        <v>0.93</v>
+      </c>
+      <c r="AY78">
+        <v>24.97</v>
+      </c>
+      <c r="AZ78" t="s">
+        <v>629</v>
+      </c>
+      <c r="BA78">
+        <v>26.93</v>
+      </c>
+      <c r="BB78" t="s">
+        <v>630</v>
+      </c>
+      <c r="BC78">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.9</v>
+      </c>
+      <c r="BD78">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>3.6329999999999973</v>
+      </c>
+      <c r="BE78">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
     </row>
-    <row r="79" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>12</v>
       </c>
@@ -11686,8 +14439,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>42.07</v>
       </c>
+      <c r="AW79">
+        <v>14</v>
+      </c>
+      <c r="AX79">
+        <v>0.81</v>
+      </c>
+      <c r="AY79">
+        <v>23.19</v>
+      </c>
+      <c r="AZ79" t="s">
+        <v>569</v>
+      </c>
+      <c r="BA79">
+        <v>28.7</v>
+      </c>
+      <c r="BB79" t="s">
+        <v>570</v>
+      </c>
+      <c r="BC79">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.89</v>
+      </c>
+      <c r="BD79">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>9.859099999999998</v>
+      </c>
+      <c r="BE79">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.18999999999999995</v>
+      </c>
     </row>
-    <row r="80" spans="2:46" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>13</v>
       </c>
@@ -11732,8 +14515,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>41.75</v>
       </c>
+      <c r="AW80">
+        <v>11</v>
+      </c>
+      <c r="AX80">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AY80">
+        <v>19.692</v>
+      </c>
+      <c r="AZ80" t="s">
+        <v>746</v>
+      </c>
+      <c r="BA80">
+        <v>32.122999999999998</v>
+      </c>
+      <c r="BB80" t="s">
+        <v>747</v>
+      </c>
+      <c r="BC80">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.814999999999998</v>
+      </c>
+      <c r="BD80">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>20.052405</v>
+      </c>
+      <c r="BE80">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.38700000000000001</v>
+      </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>14</v>
       </c>
@@ -11778,8 +14591,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>41.67</v>
       </c>
+      <c r="AW81">
+        <v>14</v>
+      </c>
+      <c r="AX81">
+        <v>0.98</v>
+      </c>
+      <c r="AY81">
+        <v>25.61</v>
+      </c>
+      <c r="AZ81" t="s">
+        <v>637</v>
+      </c>
+      <c r="BA81">
+        <v>26.14</v>
+      </c>
+      <c r="BB81" t="s">
+        <v>638</v>
+      </c>
+      <c r="BC81">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.75</v>
+      </c>
+      <c r="BD81">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.035000000000001</v>
+      </c>
+      <c r="BE81">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>15</v>
       </c>
@@ -11824,8 +14667,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>41.620000000000005</v>
       </c>
+      <c r="AW82" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY82" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="AZ82" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="BA82" s="2">
+        <v>25.81</v>
+      </c>
+      <c r="BB82" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="BC82" s="2">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.61</v>
+      </c>
+      <c r="BD82" s="2">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>0</v>
+      </c>
+      <c r="BE82" s="2">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:57" x14ac:dyDescent="0.3">
       <c r="K83">
         <v>15</v>
       </c>
@@ -11848,8 +14721,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>41.44</v>
       </c>
+      <c r="AW83">
+        <v>15</v>
+      </c>
+      <c r="AX83">
+        <v>0.9</v>
+      </c>
+      <c r="AY83">
+        <v>24.44</v>
+      </c>
+      <c r="AZ83" t="s">
+        <v>567</v>
+      </c>
+      <c r="BA83">
+        <v>27.16</v>
+      </c>
+      <c r="BB83" t="s">
+        <v>568</v>
+      </c>
+      <c r="BC83">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.6</v>
+      </c>
+      <c r="BD83">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>5.1599999999999993</v>
+      </c>
+      <c r="BE83">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:57" x14ac:dyDescent="0.3">
       <c r="K84">
         <v>14</v>
       </c>
@@ -11872,8 +14775,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>41.28</v>
       </c>
+      <c r="AW84">
+        <v>15</v>
+      </c>
+      <c r="AX84">
+        <v>0.92</v>
+      </c>
+      <c r="AY84">
+        <v>24.73</v>
+      </c>
+      <c r="AZ84" t="s">
+        <v>663</v>
+      </c>
+      <c r="BA84">
+        <v>26.86</v>
+      </c>
+      <c r="BB84" t="s">
+        <v>664</v>
+      </c>
+      <c r="BC84">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.59</v>
+      </c>
+      <c r="BD84">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>4.1271999999999984</v>
+      </c>
+      <c r="BE84">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>7.999999999999996E-2</v>
+      </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:57" x14ac:dyDescent="0.3">
       <c r="K85">
         <v>15</v>
       </c>
@@ -11896,8 +14829,38 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>40.61</v>
       </c>
+      <c r="AW85">
+        <v>14</v>
+      </c>
+      <c r="AX85">
+        <v>0.96</v>
+      </c>
+      <c r="AY85">
+        <v>25.22</v>
+      </c>
+      <c r="AZ85" t="s">
+        <v>579</v>
+      </c>
+      <c r="BA85">
+        <v>26.27</v>
+      </c>
+      <c r="BB85" t="s">
+        <v>580</v>
+      </c>
+      <c r="BC85">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.489999999999995</v>
+      </c>
+      <c r="BD85">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>2.0596000000000014</v>
+      </c>
+      <c r="BE85">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:57" x14ac:dyDescent="0.3">
       <c r="K86">
         <v>15</v>
       </c>
@@ -11919,27 +14882,1338 @@
       <c r="Q86">
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>40.379999999999995</v>
+      </c>
+      <c r="AW86">
+        <v>12</v>
+      </c>
+      <c r="AX86">
+        <v>0.84</v>
+      </c>
+      <c r="AY86">
+        <v>23.52</v>
+      </c>
+      <c r="AZ86" t="s">
+        <v>583</v>
+      </c>
+      <c r="BA86">
+        <v>27.95</v>
+      </c>
+      <c r="BB86" t="s">
+        <v>584</v>
+      </c>
+      <c r="BC86">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.47</v>
+      </c>
+      <c r="BD86">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>8.2352000000000007</v>
+      </c>
+      <c r="BE86">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AW87">
+        <v>15</v>
+      </c>
+      <c r="AX87">
+        <v>0.98</v>
+      </c>
+      <c r="AY87">
+        <v>25.41</v>
+      </c>
+      <c r="AZ87" t="s">
+        <v>577</v>
+      </c>
+      <c r="BA87">
+        <v>25.94</v>
+      </c>
+      <c r="BB87" t="s">
+        <v>578</v>
+      </c>
+      <c r="BC87">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.35</v>
+      </c>
+      <c r="BD87">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.027000000000001</v>
+      </c>
+      <c r="BE87">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AW88">
+        <v>14</v>
+      </c>
+      <c r="AX88">
+        <v>0.97</v>
+      </c>
+      <c r="AY88">
+        <v>25.28</v>
+      </c>
+      <c r="AZ88" t="s">
+        <v>675</v>
+      </c>
+      <c r="BA88">
+        <v>26.05</v>
+      </c>
+      <c r="BB88" t="s">
+        <v>676</v>
+      </c>
+      <c r="BC88">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.33</v>
+      </c>
+      <c r="BD88">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.5399000000000014</v>
+      </c>
+      <c r="BE88">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AW89">
+        <v>11</v>
+      </c>
+      <c r="AX89">
+        <v>0.4</v>
+      </c>
+      <c r="AY89">
+        <v>14.75</v>
+      </c>
+      <c r="AZ89" t="s">
+        <v>615</v>
+      </c>
+      <c r="BA89">
+        <v>36.51</v>
+      </c>
+      <c r="BB89" t="s">
+        <v>616</v>
+      </c>
+      <c r="BC89">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.26</v>
+      </c>
+      <c r="BD89">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>30.755999999999997</v>
+      </c>
+      <c r="BE89">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AW90">
+        <v>13</v>
+      </c>
+      <c r="AX90">
+        <v>0.94</v>
+      </c>
+      <c r="AY90">
+        <v>24.8</v>
+      </c>
+      <c r="AZ90" t="s">
+        <v>639</v>
+      </c>
+      <c r="BA90">
+        <v>26.44</v>
+      </c>
+      <c r="BB90" t="s">
+        <v>640</v>
+      </c>
+      <c r="BC90">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.24</v>
+      </c>
+      <c r="BD90">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>3.0744000000000029</v>
+      </c>
+      <c r="BE90">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AW91" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX91" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="AY91" s="2">
+        <v>25.47</v>
+      </c>
+      <c r="AZ91" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="BA91" s="2">
+        <v>25.72</v>
+      </c>
+      <c r="BB91" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="BC91" s="2">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.19</v>
+      </c>
+      <c r="BD91" s="2">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>0.51190000000000047</v>
+      </c>
+      <c r="BE91" s="2">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AW92">
+        <v>11</v>
+      </c>
+      <c r="AX92">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="AY92">
+        <v>25.103000000000002</v>
+      </c>
+      <c r="AZ92" t="s">
+        <v>756</v>
+      </c>
+      <c r="BA92">
+        <v>26.036999999999999</v>
+      </c>
+      <c r="BB92" t="s">
+        <v>757</v>
+      </c>
+      <c r="BC92">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.14</v>
+      </c>
+      <c r="BD92">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.8410400000000016</v>
+      </c>
+      <c r="BE92">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>3.6000000000000032E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AW93">
+        <v>12</v>
+      </c>
+      <c r="AX93">
+        <v>0.98</v>
+      </c>
+      <c r="AY93">
+        <v>25.294</v>
+      </c>
+      <c r="AZ93" t="s">
+        <v>754</v>
+      </c>
+      <c r="BA93">
+        <v>25.809000000000001</v>
+      </c>
+      <c r="BB93" t="s">
+        <v>755</v>
+      </c>
+      <c r="BC93">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>51.103000000000002</v>
+      </c>
+      <c r="BD93">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.0220600000000009</v>
+      </c>
+      <c r="BE93">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AW94">
+        <v>13</v>
+      </c>
+      <c r="AX94">
+        <v>0.92</v>
+      </c>
+      <c r="AY94">
+        <v>24.42</v>
+      </c>
+      <c r="AZ94" t="s">
+        <v>581</v>
+      </c>
+      <c r="BA94">
+        <v>26.57</v>
+      </c>
+      <c r="BB94" t="s">
+        <v>582</v>
+      </c>
+      <c r="BC94">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.99</v>
+      </c>
+      <c r="BD94">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>4.0791999999999984</v>
+      </c>
+      <c r="BE94">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AW95">
+        <v>13</v>
+      </c>
+      <c r="AX95">
+        <v>1.071</v>
+      </c>
+      <c r="AY95">
+        <v>26.306000000000001</v>
+      </c>
+      <c r="AZ95" t="s">
+        <v>752</v>
+      </c>
+      <c r="BA95">
+        <v>24.552</v>
+      </c>
+      <c r="BB95" t="s">
+        <v>753</v>
+      </c>
+      <c r="BC95">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.858000000000004</v>
+      </c>
+      <c r="BD95">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>3.6109179999999976</v>
+      </c>
+      <c r="BE95">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>7.0999999999999952E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AW96">
+        <v>14</v>
+      </c>
+      <c r="AX96">
+        <v>1.196</v>
+      </c>
+      <c r="AY96">
+        <v>27.696999999999999</v>
+      </c>
+      <c r="AZ96" t="s">
+        <v>750</v>
+      </c>
+      <c r="BA96">
+        <v>23.152000000000001</v>
+      </c>
+      <c r="BB96" t="s">
+        <v>751</v>
+      </c>
+      <c r="BC96">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.849000000000004</v>
+      </c>
+      <c r="BD96">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>9.9664039999999989</v>
+      </c>
+      <c r="BE96">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.19599999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW97">
+        <v>15</v>
+      </c>
+      <c r="AX97">
+        <v>1.341</v>
+      </c>
+      <c r="AY97">
+        <v>29.076000000000001</v>
+      </c>
+      <c r="AZ97" t="s">
+        <v>748</v>
+      </c>
+      <c r="BA97">
+        <v>21.686</v>
+      </c>
+      <c r="BB97" t="s">
+        <v>749</v>
+      </c>
+      <c r="BC97">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.762</v>
+      </c>
+      <c r="BD97">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>17.309842</v>
+      </c>
+      <c r="BE97">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.34099999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW98">
+        <v>11</v>
+      </c>
+      <c r="AX98">
+        <v>0.68</v>
+      </c>
+      <c r="AY98">
+        <v>20.56</v>
+      </c>
+      <c r="AZ98" t="s">
+        <v>649</v>
+      </c>
+      <c r="BA98">
+        <v>30.2</v>
+      </c>
+      <c r="BB98" t="s">
+        <v>650</v>
+      </c>
+      <c r="BC98">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.76</v>
+      </c>
+      <c r="BD98">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>16.243199999999998</v>
+      </c>
+      <c r="BE98">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.31999999999999995</v>
+      </c>
+    </row>
+    <row r="99" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW99">
+        <v>11</v>
+      </c>
+      <c r="AX99">
+        <v>0.751</v>
+      </c>
+      <c r="AY99">
+        <v>21.756</v>
+      </c>
+      <c r="AZ99" t="s">
+        <v>810</v>
+      </c>
+      <c r="BA99">
+        <v>28.959</v>
+      </c>
+      <c r="BB99" t="s">
+        <v>811</v>
+      </c>
+      <c r="BC99">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.715000000000003</v>
+      </c>
+      <c r="BD99">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>12.628035000000001</v>
+      </c>
+      <c r="BE99">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="100" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW100">
+        <v>14</v>
+      </c>
+      <c r="AX100">
+        <v>0.96</v>
+      </c>
+      <c r="AY100">
+        <v>24.809000000000001</v>
+      </c>
+      <c r="AZ100" t="s">
+        <v>804</v>
+      </c>
+      <c r="BA100">
+        <v>25.847999999999999</v>
+      </c>
+      <c r="BB100" t="s">
+        <v>805</v>
+      </c>
+      <c r="BC100">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.656999999999996</v>
+      </c>
+      <c r="BD100">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>2.0262800000000016</v>
+      </c>
+      <c r="BE100">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW101">
+        <v>15</v>
+      </c>
+      <c r="AX101">
+        <v>0.98</v>
+      </c>
+      <c r="AY101">
+        <v>25.004999999999999</v>
+      </c>
+      <c r="AZ101" t="s">
+        <v>802</v>
+      </c>
+      <c r="BA101">
+        <v>25.52</v>
+      </c>
+      <c r="BB101" t="s">
+        <v>803</v>
+      </c>
+      <c r="BC101">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.524999999999999</v>
+      </c>
+      <c r="BD101">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.0105000000000008</v>
+      </c>
+      <c r="BE101">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW102">
+        <v>12</v>
+      </c>
+      <c r="AX102">
+        <v>0.76</v>
+      </c>
+      <c r="AY102">
+        <v>21.76</v>
+      </c>
+      <c r="AZ102" t="s">
+        <v>647</v>
+      </c>
+      <c r="BA102">
+        <v>28.56</v>
+      </c>
+      <c r="BB102" t="s">
+        <v>648</v>
+      </c>
+      <c r="BC102">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.32</v>
+      </c>
+      <c r="BD102">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>12.0768</v>
+      </c>
+      <c r="BE102">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="103" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW103">
+        <v>12</v>
+      </c>
+      <c r="AX103">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="AY103">
+        <v>22.890999999999998</v>
+      </c>
+      <c r="AZ103" t="s">
+        <v>808</v>
+      </c>
+      <c r="BA103">
+        <v>27.303000000000001</v>
+      </c>
+      <c r="BB103" t="s">
+        <v>809</v>
+      </c>
+      <c r="BC103">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.194000000000003</v>
+      </c>
+      <c r="BD103">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>8.1314280000000014</v>
+      </c>
+      <c r="BE103">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.16200000000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW104">
+        <v>13</v>
+      </c>
+      <c r="AX104">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="AY104">
+        <v>24.018999999999998</v>
+      </c>
+      <c r="AZ104" t="s">
+        <v>806</v>
+      </c>
+      <c r="BA104">
+        <v>26.161999999999999</v>
+      </c>
+      <c r="BB104" t="s">
+        <v>807</v>
+      </c>
+      <c r="BC104">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.180999999999997</v>
+      </c>
+      <c r="BD104">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>4.1148419999999977</v>
+      </c>
+      <c r="BE104">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>8.1999999999999962E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW105">
+        <v>11</v>
+      </c>
+      <c r="AX105">
+        <v>0.68</v>
+      </c>
+      <c r="AY105">
+        <v>20.21</v>
+      </c>
+      <c r="AZ105" t="s">
+        <v>605</v>
+      </c>
+      <c r="BA105">
+        <v>29.91</v>
+      </c>
+      <c r="BB105" t="s">
+        <v>606</v>
+      </c>
+      <c r="BC105">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.120000000000005</v>
+      </c>
+      <c r="BD105">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>16.038399999999999</v>
+      </c>
+      <c r="BE105">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.31999999999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW106">
+        <v>12</v>
+      </c>
+      <c r="AX106">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="AY106">
+        <v>20.398</v>
+      </c>
+      <c r="AZ106" t="s">
+        <v>744</v>
+      </c>
+      <c r="BA106">
+        <v>29.651</v>
+      </c>
+      <c r="BB106" t="s">
+        <v>745</v>
+      </c>
+      <c r="BC106">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>50.048999999999999</v>
+      </c>
+      <c r="BD106">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>15.615288000000003</v>
+      </c>
+      <c r="BE106">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.31200000000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW107">
+        <v>15</v>
+      </c>
+      <c r="AX107">
+        <v>0.97</v>
+      </c>
+      <c r="AY107">
+        <v>24.65</v>
+      </c>
+      <c r="AZ107" t="s">
+        <v>651</v>
+      </c>
+      <c r="BA107">
+        <v>25.29</v>
+      </c>
+      <c r="BB107" t="s">
+        <v>652</v>
+      </c>
+      <c r="BC107">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>49.94</v>
+      </c>
+      <c r="BD107">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.4982000000000013</v>
+      </c>
+      <c r="BE107">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW108">
+        <v>13</v>
+      </c>
+      <c r="AX108">
+        <v>0.85</v>
+      </c>
+      <c r="AY108">
+        <v>22.96</v>
+      </c>
+      <c r="AZ108" t="s">
+        <v>645</v>
+      </c>
+      <c r="BA108">
+        <v>26.97</v>
+      </c>
+      <c r="BB108" t="s">
+        <v>646</v>
+      </c>
+      <c r="BC108">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>49.93</v>
+      </c>
+      <c r="BD108">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>7.4895000000000014</v>
+      </c>
+      <c r="BE108">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW109">
+        <v>12</v>
+      </c>
+      <c r="AX109">
+        <v>0.64</v>
+      </c>
+      <c r="AY109">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="AZ109" t="s">
+        <v>659</v>
+      </c>
+      <c r="BA109">
+        <v>30.37</v>
+      </c>
+      <c r="BB109" t="s">
+        <v>660</v>
+      </c>
+      <c r="BC109">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>49.86</v>
+      </c>
+      <c r="BD109">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>17.9496</v>
+      </c>
+      <c r="BE109">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="110" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW110">
+        <v>11</v>
+      </c>
+      <c r="AX110">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AY110">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="AZ110" t="s">
+        <v>661</v>
+      </c>
+      <c r="BA110">
+        <v>31.73</v>
+      </c>
+      <c r="BB110" t="s">
+        <v>662</v>
+      </c>
+      <c r="BC110">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>49.74</v>
+      </c>
+      <c r="BD110">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>21.388200000000005</v>
+      </c>
+      <c r="BE110">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.43000000000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW111">
+        <v>14</v>
+      </c>
+      <c r="AX111">
+        <v>0.93</v>
+      </c>
+      <c r="AY111">
+        <v>23.85</v>
+      </c>
+      <c r="AZ111" t="s">
+        <v>643</v>
+      </c>
+      <c r="BA111">
+        <v>25.59</v>
+      </c>
+      <c r="BB111" t="s">
+        <v>644</v>
+      </c>
+      <c r="BC111">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>49.44</v>
+      </c>
+      <c r="BD111">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>3.4607999999999972</v>
+      </c>
+      <c r="BE111">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW112">
+        <v>12</v>
+      </c>
+      <c r="AX112">
+        <v>0.76</v>
+      </c>
+      <c r="AY112">
+        <v>21.29</v>
+      </c>
+      <c r="AZ112" t="s">
+        <v>603</v>
+      </c>
+      <c r="BA112">
+        <v>28.15</v>
+      </c>
+      <c r="BB112" t="s">
+        <v>604</v>
+      </c>
+      <c r="BC112">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>49.44</v>
+      </c>
+      <c r="BD112">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>11.865599999999999</v>
+      </c>
+      <c r="BE112">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="113" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW113">
+        <v>15</v>
+      </c>
+      <c r="AX113">
+        <v>0.97</v>
+      </c>
+      <c r="AY113">
+        <v>24.37</v>
+      </c>
+      <c r="AZ113" t="s">
+        <v>597</v>
+      </c>
+      <c r="BA113">
+        <v>25.06</v>
+      </c>
+      <c r="BB113" t="s">
+        <v>598</v>
+      </c>
+      <c r="BC113">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>49.43</v>
+      </c>
+      <c r="BD113">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.4829000000000012</v>
+      </c>
+      <c r="BE113">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW114">
+        <v>13</v>
+      </c>
+      <c r="AX114">
+        <v>0.85</v>
+      </c>
+      <c r="AY114">
+        <v>22.65</v>
+      </c>
+      <c r="AZ114" t="s">
+        <v>601</v>
+      </c>
+      <c r="BA114">
+        <v>26.71</v>
+      </c>
+      <c r="BB114" t="s">
+        <v>602</v>
+      </c>
+      <c r="BC114">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>49.36</v>
+      </c>
+      <c r="BD114">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>7.4040000000000008</v>
+      </c>
+      <c r="BE114">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW115">
+        <v>15</v>
+      </c>
+      <c r="AX115">
+        <v>0.95</v>
+      </c>
+      <c r="AY115">
+        <v>24.04</v>
+      </c>
+      <c r="AZ115" t="s">
+        <v>641</v>
+      </c>
+      <c r="BA115">
+        <v>25.26</v>
+      </c>
+      <c r="BB115" t="s">
+        <v>642</v>
+      </c>
+      <c r="BC115">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>49.3</v>
+      </c>
+      <c r="BD115">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>2.4650000000000021</v>
+      </c>
+      <c r="BE115">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW116">
+        <v>14</v>
+      </c>
+      <c r="AX116">
+        <v>0.93</v>
+      </c>
+      <c r="AY116">
+        <v>23.55</v>
+      </c>
+      <c r="AZ116" t="s">
+        <v>599</v>
+      </c>
+      <c r="BA116">
+        <v>25.34</v>
+      </c>
+      <c r="BB116" t="s">
+        <v>600</v>
+      </c>
+      <c r="BC116">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>48.89</v>
+      </c>
+      <c r="BD116">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>3.4222999999999977</v>
+      </c>
+      <c r="BE116">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW117">
+        <v>13</v>
+      </c>
+      <c r="AX117">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AY117">
+        <v>17.77</v>
+      </c>
+      <c r="AZ117" t="s">
+        <v>611</v>
+      </c>
+      <c r="BA117">
+        <v>30.95</v>
+      </c>
+      <c r="BB117" t="s">
+        <v>612</v>
+      </c>
+      <c r="BC117">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>48.72</v>
+      </c>
+      <c r="BD117">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>20.9496</v>
+      </c>
+      <c r="BE117">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.43000000000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW118">
+        <v>12</v>
+      </c>
+      <c r="AX118">
+        <v>0.5</v>
+      </c>
+      <c r="AY118">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="AZ118" t="s">
+        <v>613</v>
+      </c>
+      <c r="BA118">
+        <v>32.33</v>
+      </c>
+      <c r="BB118" t="s">
+        <v>614</v>
+      </c>
+      <c r="BC118">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>48.64</v>
+      </c>
+      <c r="BD118">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>24.32</v>
+      </c>
+      <c r="BE118">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW119">
+        <v>13</v>
+      </c>
+      <c r="AX119">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AY119">
+        <v>21.058</v>
+      </c>
+      <c r="AZ119" t="s">
+        <v>742</v>
+      </c>
+      <c r="BA119">
+        <v>27.175999999999998</v>
+      </c>
+      <c r="BB119" t="s">
+        <v>743</v>
+      </c>
+      <c r="BC119">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>48.233999999999995</v>
+      </c>
+      <c r="BD119">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>10.852649999999997</v>
+      </c>
+      <c r="BE119">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW120">
+        <v>13</v>
+      </c>
+      <c r="AX120">
+        <v>0.72</v>
+      </c>
+      <c r="AY120">
+        <v>20.21</v>
+      </c>
+      <c r="AZ120" t="s">
+        <v>657</v>
+      </c>
+      <c r="BA120">
+        <v>27.95</v>
+      </c>
+      <c r="BB120" t="s">
+        <v>658</v>
+      </c>
+      <c r="BC120">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>48.16</v>
+      </c>
+      <c r="BD120">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>13.4848</v>
+      </c>
+      <c r="BE120">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW121">
+        <v>14</v>
+      </c>
+      <c r="AX121">
+        <v>0.81</v>
+      </c>
+      <c r="AY121">
+        <v>21.22</v>
+      </c>
+      <c r="AZ121" t="s">
+        <v>655</v>
+      </c>
+      <c r="BA121">
+        <v>26.18</v>
+      </c>
+      <c r="BB121" t="s">
+        <v>656</v>
+      </c>
+      <c r="BC121">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>47.4</v>
+      </c>
+      <c r="BD121">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>9.0059999999999967</v>
+      </c>
+      <c r="BE121">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW122">
+        <v>14</v>
+      </c>
+      <c r="AX122">
+        <v>0.65</v>
+      </c>
+      <c r="AY122">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AZ122" t="s">
+        <v>609</v>
+      </c>
+      <c r="BA122">
+        <v>28.6</v>
+      </c>
+      <c r="BB122" t="s">
+        <v>610</v>
+      </c>
+      <c r="BC122">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>47.2</v>
+      </c>
+      <c r="BD122">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>16.52</v>
+      </c>
+      <c r="BE122">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="123" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW123">
+        <v>14</v>
+      </c>
+      <c r="AX123">
+        <v>0.87</v>
+      </c>
+      <c r="AY123">
+        <v>21.818000000000001</v>
+      </c>
+      <c r="AZ123" t="s">
+        <v>740</v>
+      </c>
+      <c r="BA123">
+        <v>25.091000000000001</v>
+      </c>
+      <c r="BB123" t="s">
+        <v>741</v>
+      </c>
+      <c r="BC123">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>46.909000000000006</v>
+      </c>
+      <c r="BD123">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>6.0981700000000014</v>
+      </c>
+      <c r="BE123">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="124" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW124">
+        <v>15</v>
+      </c>
+      <c r="AX124">
+        <v>0.89</v>
+      </c>
+      <c r="AY124">
+        <v>22.03</v>
+      </c>
+      <c r="AZ124" t="s">
+        <v>653</v>
+      </c>
+      <c r="BA124">
+        <v>24.72</v>
+      </c>
+      <c r="BB124" t="s">
+        <v>654</v>
+      </c>
+      <c r="BC124">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>46.75</v>
+      </c>
+      <c r="BD124">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>5.1424999999999992</v>
+      </c>
+      <c r="BE124">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW125">
+        <v>15</v>
+      </c>
+      <c r="AX125">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="AY125">
+        <v>22.658999999999999</v>
+      </c>
+      <c r="AZ125" t="s">
+        <v>738</v>
+      </c>
+      <c r="BA125">
+        <v>23.663</v>
+      </c>
+      <c r="BB125" t="s">
+        <v>739</v>
+      </c>
+      <c r="BC125">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>46.322000000000003</v>
+      </c>
+      <c r="BD125">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>1.9455240000000018</v>
+      </c>
+      <c r="BE125">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>4.2000000000000037E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="49:57" x14ac:dyDescent="0.3">
+      <c r="AW126">
+        <v>15</v>
+      </c>
+      <c r="AX126">
+        <v>0.74</v>
+      </c>
+      <c r="AY126">
+        <v>19.27</v>
+      </c>
+      <c r="AZ126" t="s">
+        <v>607</v>
+      </c>
+      <c r="BA126">
+        <v>26.14</v>
+      </c>
+      <c r="BB126" t="s">
+        <v>608</v>
+      </c>
+      <c r="BC126">
+        <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
+        <v>45.41</v>
+      </c>
+      <c r="BD126">
+        <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
+        <v>11.8066</v>
+      </c>
+      <c r="BE126">
+        <f>ABS(1-Table1[[#This Row],[Column2]])</f>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="AP1:AP69 AP132:AP1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF70 AF132:AF1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W71 W132:W1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/edBalance/data/result.xlsx
+++ b/src/edBalance/data/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\projects\personal\ergo-layouts\src\edBalance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F57D51E-EA20-4068-B41E-54B43B804A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DBB10-9BB2-4D1C-8ADF-99EC44B0EF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="-108" windowWidth="30096" windowHeight="17496" xr2:uid="{AD34469A-B5B4-4A82-AB26-50156FBE1896}"/>
   </bookViews>
@@ -2741,6 +2741,27 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2770,27 +2791,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2817,7 +2817,7 @@
     <tableColumn id="4" xr3:uid="{CF1A23CA-E6DF-401F-9297-CE8FC423651E}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{F03C7A48-B318-4728-8780-36F21ADA595A}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{418C3F5A-855D-4D2F-9D88-19547042B6D6}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{65AB2473-07CB-4DF0-BD93-DAA475A62C8B}" name="Column7" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{65AB2473-07CB-4DF0-BD93-DAA475A62C8B}" name="Column7" dataDxfId="9">
       <calculatedColumnFormula>Table2[[#This Row],[Column3]]+Table2[[#This Row],[Column5]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2838,7 +2838,7 @@
     <tableColumn id="4" xr3:uid="{0E36D8A9-FFE6-4B53-B54E-F81E7B176BF7}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{021EDBFB-4265-4DCE-9E10-5727A88E94B5}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{2E5E1AF4-E61D-45CB-810C-6F3FBD1EB232}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{2AF47F0E-1AD7-4D37-A5DA-AFCE72514DCC}" name="Column7" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{2AF47F0E-1AD7-4D37-A5DA-AFCE72514DCC}" name="Column7" dataDxfId="8">
       <calculatedColumnFormula>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2850,7 +2850,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F76A6FCE-3BCA-43CD-85AF-E01A0A8B5AE8}" name="Table5" displayName="Table5" ref="T1:Z71" totalsRowShown="0">
   <autoFilter ref="T1:Z71" xr:uid="{69CD4EAC-1FB0-47CB-AC17-FC3C66051EA3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T2:Z71">
-    <sortCondition descending="1" ref="U1:U71"/>
+    <sortCondition descending="1" ref="Z1:Z71"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CD2A2B7C-F3D9-4587-8CBA-75B625270BB2}" name="Column1"/>
@@ -2859,7 +2859,7 @@
     <tableColumn id="4" xr3:uid="{5CA3FE41-62A6-433A-BD98-651CAA6019D0}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{799EC143-6BC6-49E5-8227-4A99AC0A43BD}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{1543A16E-64F6-48F1-88F5-3FABC9B48824}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{9D15E7E2-CF89-4358-BEFB-2B454EFCA5CE}" name="Column7" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{9D15E7E2-CF89-4358-BEFB-2B454EFCA5CE}" name="Column7" dataDxfId="7">
       <calculatedColumnFormula>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2880,10 +2880,10 @@
     <tableColumn id="4" xr3:uid="{6E4ADF63-BB02-4615-9776-512F360D9216}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{5917B4DE-CC6E-48AA-8A51-B7881A05581C}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{E5E725AA-4F46-4F98-ADD2-951E8CDED01F}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{42848454-271B-4F7A-96B4-18DE096807C2}" name="Column7" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{42848454-271B-4F7A-96B4-18DE096807C2}" name="Column7" dataDxfId="6">
       <calculatedColumnFormula>Table6[[#This Row],[Column3]]+Table6[[#This Row],[Column5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{322E9437-9FD1-4A5C-90C2-0C59627D5F4B}" name="Column8" dataDxfId="8" dataCellStyle="Bad">
+    <tableColumn id="8" xr3:uid="{322E9437-9FD1-4A5C-90C2-0C59627D5F4B}" name="Column8" dataDxfId="5" dataCellStyle="Bad">
       <calculatedColumnFormula>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2895,7 +2895,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4F8F2A28-99BE-419E-9BE2-56C1B7A71E03}" name="Table7" displayName="Table7" ref="AM1:AT69" totalsRowShown="0">
   <autoFilter ref="AM1:AT69" xr:uid="{FD14EC37-3051-4290-9462-D9AB9CD6057C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AM2:AT69">
-    <sortCondition descending="1" ref="AN1:AN69"/>
+    <sortCondition descending="1" ref="AS1:AS69"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BFEB5B41-FB20-402B-AB17-65DDFB05D4E1}" name="Column1"/>
@@ -2904,10 +2904,10 @@
     <tableColumn id="4" xr3:uid="{1C20EB55-34E1-4FCE-A318-7ABFB45FA20D}" name="Column4"/>
     <tableColumn id="5" xr3:uid="{6FBDCD96-AFBE-4CC8-8BE4-2AB8CA0A786E}" name="Column5"/>
     <tableColumn id="6" xr3:uid="{337613FC-68F5-44A8-A2FB-631632C68C0A}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{0AAA6949-E2AD-4460-B7D7-E8CB8C55C1E9}" name="Column7" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{0AAA6949-E2AD-4460-B7D7-E8CB8C55C1E9}" name="Column7" dataDxfId="4">
       <calculatedColumnFormula>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8935A18A-24ED-45A4-AF0A-CE6FFDB3FE9F}" name="Column8" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{8935A18A-24ED-45A4-AF0A-CE6FFDB3FE9F}" name="Column8" dataDxfId="3">
       <calculatedColumnFormula>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2931,10 +2931,10 @@
     <tableColumn id="7" xr3:uid="{D34F8E3E-DE64-447B-92A6-6A82A77F707E}" name="Column7" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{449559BC-7872-41A0-885B-03A21B91FBC5}" name="Column8" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{449559BC-7872-41A0-885B-03A21B91FBC5}" name="Column8" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{42530F42-BB1E-4FED-B36E-FB4545895DA5}" name="Column9" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{42530F42-BB1E-4FED-B36E-FB4545895DA5}" name="Column9" dataDxfId="0">
       <calculatedColumnFormula>ABS(1-Table1[[#This Row],[Column2]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3241,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35E1EEC-EFE5-4091-B144-0AA50C8576BC}">
   <dimension ref="A1:BE126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ39" sqref="AZ39"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3481,27 +3481,27 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>51.760000000000005</v>
       </c>
-      <c r="T2" s="2">
-        <v>15</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="V2" s="2">
-        <v>22.78</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="2">
-        <v>24.62</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z2" s="2">
+      <c r="T2" s="3">
+        <v>11</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V2" s="3">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" s="3">
+        <v>32.92</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z2" s="3">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>47.400000000000006</v>
+        <v>51.5</v>
       </c>
       <c r="AC2" s="5">
         <v>15</v>
@@ -3529,31 +3529,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>53.261999999999993</v>
       </c>
-      <c r="AM2" s="8">
-        <v>15</v>
-      </c>
-      <c r="AN2" s="8">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="8">
-        <v>25.8</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="AQ2" s="8">
-        <v>25.81</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="AS2" s="8">
+      <c r="AM2" s="3">
+        <v>11</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>20.27</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>34.94</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AS2" s="3">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.61</v>
-      </c>
-      <c r="AT2" s="8">
+        <v>55.209999999999994</v>
+      </c>
+      <c r="AT2">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>51.61</v>
+        <v>32.021799999999992</v>
       </c>
       <c r="AU2" s="8"/>
       <c r="AW2">
@@ -3632,27 +3632,27 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>50.16</v>
       </c>
-      <c r="T3" s="2">
-        <v>15</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="V3" s="2">
-        <v>20.98</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="2">
-        <v>22.62</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z3" s="2">
+      <c r="T3" s="3">
+        <v>12</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="V3" s="3">
+        <v>19.79</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" s="3">
+        <v>30.97</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z3" s="3">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.6</v>
+        <v>50.76</v>
       </c>
       <c r="AC3" s="8">
         <v>15</v>
@@ -3680,31 +3680,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>52.648200000000003</v>
       </c>
-      <c r="AM3" s="7">
-        <v>15</v>
-      </c>
-      <c r="AN3" s="7">
-        <v>0.99</v>
-      </c>
-      <c r="AO3" s="7">
-        <v>26.24</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="AQ3" s="7">
-        <v>26.53</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="AS3" s="7">
+      <c r="AM3" s="3">
+        <v>11</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>22.23</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>32.6</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="AS3" s="3">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.769999999999996</v>
-      </c>
-      <c r="AT3" s="7">
+        <v>54.83</v>
+      </c>
+      <c r="AT3">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>52.242299999999993</v>
+        <v>37.284399999999998</v>
       </c>
       <c r="AU3" s="7"/>
       <c r="AW3">
@@ -3783,27 +3783,27 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>49.78</v>
       </c>
-      <c r="T4">
-        <v>15</v>
-      </c>
-      <c r="U4">
-        <v>0.92</v>
-      </c>
-      <c r="V4">
-        <v>21.37</v>
-      </c>
-      <c r="W4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4">
-        <v>23.32</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z4">
+      <c r="T4" s="3">
+        <v>11</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V4" s="3">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="X4" s="3">
+        <v>32.33</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z4" s="3">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>44.69</v>
+        <v>50.64</v>
       </c>
       <c r="AC4" s="8">
         <v>15</v>
@@ -3831,31 +3831,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>52.509599999999999</v>
       </c>
-      <c r="AM4" s="8">
-        <v>15</v>
-      </c>
-      <c r="AN4" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="AO4" s="8">
-        <v>25.96</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="AQ4" s="8">
-        <v>26.3</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="AS4" s="8">
+      <c r="AM4" s="3">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>20.77</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>33.94</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="AS4" s="3">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.260000000000005</v>
-      </c>
-      <c r="AT4" s="8">
+        <v>54.709999999999994</v>
+      </c>
+      <c r="AT4">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>51.737400000000008</v>
+        <v>33.373099999999994</v>
       </c>
       <c r="AU4" s="8"/>
       <c r="AW4">
@@ -3934,27 +3934,27 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>49.629999999999995</v>
       </c>
-      <c r="T5">
-        <v>15</v>
-      </c>
-      <c r="U5">
-        <v>0.91</v>
-      </c>
-      <c r="V5">
+      <c r="T5" s="3">
+        <v>13</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="V5" s="3">
         <v>20.85</v>
       </c>
-      <c r="W5" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5">
-        <v>22.97</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>393</v>
-      </c>
-      <c r="Z5">
+      <c r="W5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="3">
+        <v>29.22</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z5" s="3">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.82</v>
+        <v>50.07</v>
       </c>
       <c r="AC5" s="9">
         <v>15</v>
@@ -3982,31 +3982,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>52.21</v>
       </c>
-      <c r="AM5" s="2">
-        <v>15</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>25.47</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>25.72</v>
-      </c>
-      <c r="AR5" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="AS5" s="2">
+      <c r="AM5" s="3">
+        <v>12</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>21.28</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="AS5" s="3">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.19</v>
+        <v>54.050000000000004</v>
       </c>
       <c r="AT5">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>50.678100000000001</v>
+        <v>35.132500000000007</v>
       </c>
       <c r="AW5">
         <v>14</v>
@@ -4085,26 +4085,26 @@
         <v>49.239999999999995</v>
       </c>
       <c r="T6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U6">
-        <v>0.9</v>
+        <v>0.63</v>
       </c>
       <c r="V6">
-        <v>21.08</v>
+        <v>19.41</v>
       </c>
       <c r="W6" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="X6">
-        <v>23.46</v>
+        <v>30.57</v>
       </c>
       <c r="Y6" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="Z6">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>44.54</v>
+        <v>49.980000000000004</v>
       </c>
       <c r="AC6">
         <v>14</v>
@@ -4132,31 +4132,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>51.865899999999996</v>
       </c>
-      <c r="AM6" s="2">
-        <v>14</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>25.61</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>26.14</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="AS6" s="2">
+      <c r="AM6" s="3">
+        <v>12</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>23.09</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>30.32</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="AS6" s="3">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.75</v>
+        <v>53.41</v>
       </c>
       <c r="AT6">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>50.714999999999996</v>
+        <v>40.5916</v>
       </c>
       <c r="AW6">
         <v>13</v>
@@ -4235,26 +4235,26 @@
         <v>48.95</v>
       </c>
       <c r="T7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U7">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="V7">
-        <v>19.86</v>
+        <v>21.91</v>
       </c>
       <c r="W7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="X7">
-        <v>22.15</v>
+        <v>28.01</v>
       </c>
       <c r="Y7" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="Z7">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>42.01</v>
+        <v>49.92</v>
       </c>
       <c r="AC7" s="2">
         <v>15</v>
@@ -4282,31 +4282,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>51.846299999999999</v>
       </c>
-      <c r="AM7" s="2">
-        <v>15</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>25.41</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>25.94</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="AS7" s="2">
+      <c r="AM7" s="3">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>21.59</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>31.63</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="AS7" s="3">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.35</v>
+        <v>53.22</v>
       </c>
       <c r="AT7">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>50.323</v>
+        <v>36.189599999999999</v>
       </c>
       <c r="AW7">
         <v>15</v>
@@ -4385,26 +4385,26 @@
         <v>48.849999999999994</v>
       </c>
       <c r="T8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U8">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="V8">
-        <v>19.63</v>
+        <v>21.7</v>
       </c>
       <c r="W8" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="X8">
-        <v>21.77</v>
+        <v>27.99</v>
       </c>
       <c r="Y8" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="Z8">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>41.4</v>
+        <v>49.69</v>
       </c>
       <c r="AC8">
         <v>15</v>
@@ -4432,31 +4432,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>51.681200000000004</v>
       </c>
-      <c r="AM8" s="2">
-        <v>15</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>24.43</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>24.86</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="AS8" s="2">
+      <c r="AM8" s="3">
+        <v>13</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>24.32</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>28.71</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="AS8" s="3">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.29</v>
+        <v>53.03</v>
       </c>
       <c r="AT8">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>48.304200000000002</v>
+        <v>45.075499999999998</v>
       </c>
       <c r="AW8">
         <v>14</v>
@@ -4535,26 +4535,26 @@
         <v>48.769999999999996</v>
       </c>
       <c r="T9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U9">
-        <v>0.9</v>
+        <v>0.69</v>
       </c>
       <c r="V9">
-        <v>18.98</v>
+        <v>20.28</v>
       </c>
       <c r="W9" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="X9">
-        <v>21.07</v>
+        <v>29.41</v>
       </c>
       <c r="Y9" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="Z9">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>40.049999999999997</v>
+        <v>49.69</v>
       </c>
       <c r="AC9">
         <v>14</v>
@@ -4686,26 +4686,26 @@
         <v>48.64</v>
       </c>
       <c r="T10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U10">
-        <v>0.89</v>
+        <v>0.61</v>
       </c>
       <c r="V10">
-        <v>23.03</v>
+        <v>18.68</v>
       </c>
       <c r="W10" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="X10">
-        <v>25.94</v>
+        <v>30.6</v>
       </c>
       <c r="Y10" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="Z10">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>48.97</v>
+        <v>49.28</v>
       </c>
       <c r="AC10" s="2">
         <v>15</v>
@@ -4734,30 +4734,30 @@
         <v>51.529499999999999</v>
       </c>
       <c r="AM10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AN10">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="AO10">
-        <v>25.77</v>
+        <v>22.67</v>
       </c>
       <c r="AP10" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="AQ10">
-        <v>26.64</v>
+        <v>30.23</v>
       </c>
       <c r="AR10" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="AS10">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.41</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="AT10">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>50.837699999999998</v>
+        <v>39.675000000000004</v>
       </c>
       <c r="AW10">
         <v>14</v>
@@ -4836,26 +4836,26 @@
         <v>48.19</v>
       </c>
       <c r="T11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U11">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="V11">
-        <v>20.399999999999999</v>
+        <v>22.56</v>
       </c>
       <c r="W11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="X11">
-        <v>23.15</v>
+        <v>26.48</v>
       </c>
       <c r="Y11" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="Z11">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.55</v>
+        <v>49.04</v>
       </c>
       <c r="AC11">
         <v>14</v>
@@ -4883,31 +4883,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>51.264499999999998</v>
       </c>
-      <c r="AM11">
-        <v>14</v>
-      </c>
-      <c r="AN11">
-        <v>0.97</v>
-      </c>
-      <c r="AO11">
-        <v>25.28</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>675</v>
-      </c>
-      <c r="AQ11">
-        <v>26.05</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>676</v>
-      </c>
-      <c r="AS11">
+      <c r="AM11" s="7">
+        <v>15</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>26.24</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>26.53</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="AS11" s="7">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.33</v>
-      </c>
-      <c r="AT11">
+        <v>52.769999999999996</v>
+      </c>
+      <c r="AT11" s="7">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>49.790099999999995</v>
+        <v>52.242299999999993</v>
       </c>
       <c r="AW11">
         <v>15</v>
@@ -4989,23 +4989,23 @@
         <v>15</v>
       </c>
       <c r="U12">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="V12">
-        <v>20.350000000000001</v>
+        <v>23.03</v>
       </c>
       <c r="W12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X12">
-        <v>23.2</v>
+        <v>25.94</v>
       </c>
       <c r="Y12" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="Z12">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.55</v>
+        <v>48.97</v>
       </c>
       <c r="AC12">
         <v>15</v>
@@ -5034,30 +5034,30 @@
         <v>51.138399999999997</v>
       </c>
       <c r="AM12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN12">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="AO12">
-        <v>24.65</v>
+        <v>22.79</v>
       </c>
       <c r="AP12" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="AQ12">
-        <v>25.29</v>
+        <v>29.98</v>
       </c>
       <c r="AR12" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="AS12">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.94</v>
+        <v>52.769999999999996</v>
       </c>
       <c r="AT12">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>48.441799999999994</v>
+        <v>40.105199999999996</v>
       </c>
       <c r="AW12">
         <v>12</v>
@@ -5136,26 +5136,26 @@
         <v>48.050000000000004</v>
       </c>
       <c r="T13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U13">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="V13">
-        <v>19.82</v>
+        <v>20.48</v>
       </c>
       <c r="W13" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="X13">
-        <v>22.44</v>
+        <v>28.48</v>
       </c>
       <c r="Y13" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="Z13">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>42.260000000000005</v>
+        <v>48.96</v>
       </c>
       <c r="AC13">
         <v>15</v>
@@ -5187,27 +5187,27 @@
         <v>15</v>
       </c>
       <c r="AN13">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="AO13">
-        <v>24.37</v>
+        <v>25.85</v>
       </c>
       <c r="AP13" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="AQ13">
-        <v>25.06</v>
+        <v>26.87</v>
       </c>
       <c r="AR13" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="AS13">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.43</v>
+        <v>52.72</v>
       </c>
       <c r="AT13">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>47.947099999999999</v>
+        <v>50.611199999999997</v>
       </c>
       <c r="AW13">
         <v>12</v>
@@ -5286,26 +5286,26 @@
         <v>48.03</v>
       </c>
       <c r="T14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U14">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="V14">
-        <v>21.05</v>
+        <v>22.44</v>
       </c>
       <c r="W14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="X14">
-        <v>24.28</v>
+        <v>26.46</v>
       </c>
       <c r="Y14" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="Z14">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>45.33</v>
+        <v>48.900000000000006</v>
       </c>
       <c r="AC14" s="2">
         <v>14</v>
@@ -5334,30 +5334,30 @@
         <v>50.852199999999996</v>
       </c>
       <c r="AM14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN14">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AO14">
-        <v>25.85</v>
+        <v>25.22</v>
       </c>
       <c r="AP14" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AQ14">
-        <v>26.87</v>
+        <v>27.34</v>
       </c>
       <c r="AR14" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AS14">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.72</v>
+        <v>52.56</v>
       </c>
       <c r="AT14">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>50.611199999999997</v>
+        <v>48.355200000000004</v>
       </c>
       <c r="AW14">
         <v>14</v>
@@ -5436,26 +5436,26 @@
         <v>47.769999999999996</v>
       </c>
       <c r="T15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U15">
-        <v>0.87</v>
+        <v>0.62</v>
       </c>
       <c r="V15">
-        <v>20.75</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="W15" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="X15">
-        <v>23.81</v>
+        <v>30.1</v>
       </c>
       <c r="Y15" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Z15">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>44.56</v>
+        <v>48.66</v>
       </c>
       <c r="AC15">
         <v>14</v>
@@ -5484,30 +5484,30 @@
         <v>50.536999999999999</v>
       </c>
       <c r="AM15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN15">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AO15">
-        <v>25.22</v>
+        <v>22.07</v>
       </c>
       <c r="AP15" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="AQ15">
-        <v>26.27</v>
+        <v>30.43</v>
       </c>
       <c r="AR15" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="AS15">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.489999999999995</v>
+        <v>52.5</v>
       </c>
       <c r="AT15">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>49.430399999999992</v>
+        <v>38.324999999999996</v>
       </c>
       <c r="AW15">
         <v>12</v>
@@ -5586,26 +5586,26 @@
         <v>47.33</v>
       </c>
       <c r="T16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U16">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="V16">
-        <v>21.67</v>
+        <v>21.25</v>
       </c>
       <c r="W16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="X16">
-        <v>25.23</v>
+        <v>26.98</v>
       </c>
       <c r="Y16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z16">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>46.900000000000006</v>
+        <v>48.230000000000004</v>
       </c>
       <c r="AC16">
         <v>15</v>
@@ -5634,30 +5634,30 @@
         <v>50.469099999999997</v>
       </c>
       <c r="AM16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN16">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="AO16">
-        <v>24.24</v>
+        <v>23.87</v>
       </c>
       <c r="AP16" t="s">
-        <v>695</v>
+        <v>623</v>
       </c>
       <c r="AQ16">
-        <v>25.2</v>
+        <v>28.59</v>
       </c>
       <c r="AR16" t="s">
-        <v>696</v>
+        <v>624</v>
       </c>
       <c r="AS16">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.44</v>
+        <v>52.46</v>
       </c>
       <c r="AT16">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>47.462399999999995</v>
+        <v>44.066400000000002</v>
       </c>
       <c r="AW16">
         <v>13</v>
@@ -5735,27 +5735,27 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>46.870000000000005</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="2">
         <v>15</v>
       </c>
-      <c r="U17">
-        <v>0.85</v>
-      </c>
-      <c r="V17">
-        <v>22.56</v>
-      </c>
-      <c r="W17" t="s">
-        <v>26</v>
-      </c>
-      <c r="X17">
-        <v>26.48</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z17">
+      <c r="U17" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="V17" s="2">
+        <v>22.78</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="2">
+        <v>24.62</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z17" s="2">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>49.04</v>
+        <v>47.400000000000006</v>
       </c>
       <c r="AC17" s="2">
         <v>15</v>
@@ -5784,30 +5784,30 @@
         <v>50.460199999999993</v>
       </c>
       <c r="AM17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN17">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="AO17">
-        <v>24.14</v>
+        <v>25.77</v>
       </c>
       <c r="AP17" t="s">
-        <v>683</v>
+        <v>627</v>
       </c>
       <c r="AQ17">
-        <v>25.22</v>
+        <v>26.64</v>
       </c>
       <c r="AR17" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="AS17">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.36</v>
+        <v>52.41</v>
       </c>
       <c r="AT17">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>47.385599999999997</v>
+        <v>50.837699999999998</v>
       </c>
       <c r="AW17">
         <v>15</v>
@@ -5886,26 +5886,26 @@
         <v>46.82</v>
       </c>
       <c r="T18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U18">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="V18">
-        <v>22.44</v>
+        <v>17.88</v>
       </c>
       <c r="W18" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="X18">
-        <v>26.46</v>
+        <v>29.5</v>
       </c>
       <c r="Y18" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="Z18">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>48.900000000000006</v>
+        <v>47.379999999999995</v>
       </c>
       <c r="AC18">
         <v>14</v>
@@ -5934,30 +5934,30 @@
         <v>50.23599999999999</v>
       </c>
       <c r="AM18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN18">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="AO18">
-        <v>24.04</v>
+        <v>25.24</v>
       </c>
       <c r="AP18" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="AQ18">
-        <v>25.26</v>
+        <v>27.17</v>
       </c>
       <c r="AR18" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="AS18">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.3</v>
+        <v>52.41</v>
       </c>
       <c r="AT18">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>46.834999999999994</v>
+        <v>48.741300000000003</v>
       </c>
       <c r="AW18">
         <v>15</v>
@@ -6036,26 +6036,26 @@
         <v>46.790000000000006</v>
       </c>
       <c r="T19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U19">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="V19">
-        <v>19.25</v>
+        <v>19.48</v>
       </c>
       <c r="W19" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="X19">
-        <v>22.65</v>
+        <v>27.84</v>
       </c>
       <c r="Y19" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="Z19">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>41.9</v>
+        <v>47.32</v>
       </c>
       <c r="AC19">
         <v>15</v>
@@ -6084,30 +6084,30 @@
         <v>50.2072</v>
       </c>
       <c r="AM19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN19">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="AO19">
-        <v>24.8</v>
+        <v>22.38</v>
       </c>
       <c r="AP19" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="AQ19">
-        <v>26.44</v>
+        <v>29.98</v>
       </c>
       <c r="AR19" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AS19">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.24</v>
+        <v>52.36</v>
       </c>
       <c r="AT19">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>48.165599999999998</v>
+        <v>39.269999999999996</v>
       </c>
       <c r="AW19">
         <v>14</v>
@@ -6186,26 +6186,26 @@
         <v>46.64</v>
       </c>
       <c r="T20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U20">
-        <v>0.85</v>
+        <v>0.69</v>
       </c>
       <c r="V20">
-        <v>19.05</v>
+        <v>19.18</v>
       </c>
       <c r="W20" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="X20">
-        <v>22.3</v>
+        <v>27.95</v>
       </c>
       <c r="Y20" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="Z20">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>41.35</v>
+        <v>47.129999999999995</v>
       </c>
       <c r="AC20">
         <v>14</v>
@@ -6233,31 +6233,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>50.178100000000001</v>
       </c>
-      <c r="AM20">
-        <v>14</v>
-      </c>
-      <c r="AN20">
-        <v>0.94</v>
-      </c>
-      <c r="AO20">
-        <v>23.95</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>685</v>
-      </c>
-      <c r="AQ20">
-        <v>25.56</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>686</v>
-      </c>
-      <c r="AS20">
+      <c r="AM20" s="8">
+        <v>15</v>
+      </c>
+      <c r="AN20" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="AO20" s="8">
+        <v>25.96</v>
+      </c>
+      <c r="AP20" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="AQ20" s="8">
+        <v>26.3</v>
+      </c>
+      <c r="AR20" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="AS20" s="8">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.51</v>
-      </c>
-      <c r="AT20">
+        <v>52.260000000000005</v>
+      </c>
+      <c r="AT20" s="8">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>46.539399999999993</v>
+        <v>51.737400000000008</v>
       </c>
       <c r="AW20">
         <v>13</v>
@@ -6339,23 +6339,23 @@
         <v>15</v>
       </c>
       <c r="U21">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="V21">
-        <v>18.93</v>
+        <v>21.67</v>
       </c>
       <c r="W21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X21">
-        <v>22.26</v>
+        <v>25.23</v>
       </c>
       <c r="Y21" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="Z21">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>41.19</v>
+        <v>46.900000000000006</v>
       </c>
       <c r="AC21">
         <v>14</v>
@@ -6384,30 +6384,30 @@
         <v>50.112499999999997</v>
       </c>
       <c r="AM21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN21">
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="AO21">
-        <v>25.24</v>
+        <v>23.9</v>
       </c>
       <c r="AP21" t="s">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="AQ21">
-        <v>27.17</v>
+        <v>28.31</v>
       </c>
       <c r="AR21" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="AS21">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.41</v>
+        <v>52.209999999999994</v>
       </c>
       <c r="AT21">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>48.741300000000003</v>
+        <v>43.856399999999994</v>
       </c>
       <c r="AW21">
         <v>14</v>
@@ -6486,26 +6486,26 @@
         <v>46.42</v>
       </c>
       <c r="T22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U22">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="V22">
-        <v>18.41</v>
+        <v>20.14</v>
       </c>
       <c r="W22" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="X22">
-        <v>21.6</v>
+        <v>26.65</v>
       </c>
       <c r="Y22" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="Z22">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>40.010000000000005</v>
+        <v>46.79</v>
       </c>
       <c r="AC22">
         <v>13</v>
@@ -6534,30 +6534,30 @@
         <v>49.848199999999999</v>
       </c>
       <c r="AM22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN22">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="AO22">
-        <v>24.97</v>
+        <v>23.58</v>
       </c>
       <c r="AP22" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AQ22">
-        <v>26.93</v>
+        <v>28.34</v>
       </c>
       <c r="AR22" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AS22">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.9</v>
+        <v>51.92</v>
       </c>
       <c r="AT22">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>48.267000000000003</v>
+        <v>43.093600000000002</v>
       </c>
       <c r="AW22">
         <v>13</v>
@@ -6636,26 +6636,26 @@
         <v>46.31</v>
       </c>
       <c r="T23">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U23">
-        <v>0.84</v>
+        <v>0.59</v>
       </c>
       <c r="V23">
-        <v>19.329999999999998</v>
+        <v>17.27</v>
       </c>
       <c r="W23" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="X23">
-        <v>23.05</v>
+        <v>29.48</v>
       </c>
       <c r="Y23" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="Z23">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>42.379999999999995</v>
+        <v>46.75</v>
       </c>
       <c r="AC23">
         <v>14</v>
@@ -6690,24 +6690,24 @@
         <v>0.93</v>
       </c>
       <c r="AO23">
-        <v>24.46</v>
+        <v>24.97</v>
       </c>
       <c r="AP23" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="AQ23">
-        <v>26.34</v>
+        <v>26.93</v>
       </c>
       <c r="AR23" t="s">
-        <v>678</v>
+        <v>630</v>
       </c>
       <c r="AS23">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>50.8</v>
+        <v>51.9</v>
       </c>
       <c r="AT23">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>47.244</v>
+        <v>48.267000000000003</v>
       </c>
       <c r="AW23">
         <v>15</v>
@@ -6786,26 +6786,26 @@
         <v>46.260000000000005</v>
       </c>
       <c r="T24">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U24">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
       <c r="V24">
-        <v>20.53</v>
+        <v>18.53</v>
       </c>
       <c r="W24" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="X24">
-        <v>24.83</v>
+        <v>27.95</v>
       </c>
       <c r="Y24" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Z24">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>45.36</v>
+        <v>46.480000000000004</v>
       </c>
       <c r="AC24">
         <v>14</v>
@@ -6837,27 +6837,27 @@
         <v>14</v>
       </c>
       <c r="AN24">
-        <v>0.93</v>
+        <v>0.81</v>
       </c>
       <c r="AO24">
-        <v>23.85</v>
+        <v>23.19</v>
       </c>
       <c r="AP24" t="s">
-        <v>643</v>
+        <v>569</v>
       </c>
       <c r="AQ24">
-        <v>25.59</v>
+        <v>28.7</v>
       </c>
       <c r="AR24" t="s">
-        <v>644</v>
+        <v>570</v>
       </c>
       <c r="AS24">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.44</v>
+        <v>51.89</v>
       </c>
       <c r="AT24">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>45.979199999999999</v>
+        <v>42.030900000000003</v>
       </c>
       <c r="AW24">
         <v>11</v>
@@ -6936,26 +6936,26 @@
         <v>46.22</v>
       </c>
       <c r="T25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U25">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
       <c r="V25">
-        <v>20.49</v>
+        <v>18.34</v>
       </c>
       <c r="W25" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="X25">
-        <v>24.81</v>
+        <v>28.02</v>
       </c>
       <c r="Y25" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="Z25">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>45.3</v>
+        <v>46.36</v>
       </c>
       <c r="AC25">
         <v>13</v>
@@ -6983,31 +6983,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>49.556799999999996</v>
       </c>
-      <c r="AM25">
+      <c r="AM25" s="2">
         <v>14</v>
       </c>
-      <c r="AN25">
-        <v>0.93</v>
-      </c>
-      <c r="AO25">
-        <v>23.55</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>599</v>
-      </c>
-      <c r="AQ25">
-        <v>25.34</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>600</v>
-      </c>
-      <c r="AS25">
+      <c r="AN25" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>25.61</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>26.14</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="AS25" s="2">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>48.89</v>
+        <v>51.75</v>
       </c>
       <c r="AT25">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>45.467700000000001</v>
+        <v>50.714999999999996</v>
       </c>
       <c r="AW25">
         <v>15</v>
@@ -7086,26 +7086,26 @@
         <v>46.129999999999995</v>
       </c>
       <c r="T26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U26">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
       <c r="V26">
-        <v>19.73</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="W26" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="X26">
-        <v>23.68</v>
+        <v>26.59</v>
       </c>
       <c r="Y26" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="Z26">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.41</v>
+        <v>46.35</v>
       </c>
       <c r="AC26">
         <v>14</v>
@@ -7133,31 +7133,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>49.44</v>
       </c>
-      <c r="AM26">
-        <v>14</v>
-      </c>
-      <c r="AN26">
-        <v>0.92</v>
-      </c>
-      <c r="AO26">
-        <v>25.22</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>589</v>
-      </c>
-      <c r="AQ26">
-        <v>27.34</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>590</v>
-      </c>
-      <c r="AS26">
+      <c r="AM26" s="8">
+        <v>15</v>
+      </c>
+      <c r="AN26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="AP26" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="AQ26" s="8">
+        <v>25.81</v>
+      </c>
+      <c r="AR26" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="AS26" s="8">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.56</v>
-      </c>
-      <c r="AT26">
+        <v>51.61</v>
+      </c>
+      <c r="AT26" s="8">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>48.355200000000004</v>
+        <v>51.61</v>
       </c>
       <c r="AW26">
         <v>14</v>
@@ -7287,27 +7287,27 @@
         <v>15</v>
       </c>
       <c r="AN27">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="AO27">
-        <v>24.73</v>
+        <v>24.44</v>
       </c>
       <c r="AP27" t="s">
-        <v>663</v>
+        <v>567</v>
       </c>
       <c r="AQ27">
-        <v>26.86</v>
+        <v>27.16</v>
       </c>
       <c r="AR27" t="s">
-        <v>664</v>
+        <v>568</v>
       </c>
       <c r="AS27">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.59</v>
+        <v>51.6</v>
       </c>
       <c r="AT27">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>47.462800000000009</v>
+        <v>46.440000000000005</v>
       </c>
       <c r="AW27">
         <v>15</v>
@@ -7386,26 +7386,26 @@
         <v>45.989999999999995</v>
       </c>
       <c r="T28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U28">
-        <v>0.8</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="V28">
-        <v>20.059999999999999</v>
+        <v>16.78</v>
       </c>
       <c r="W28" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="X28">
-        <v>24.99</v>
+        <v>29.24</v>
       </c>
       <c r="Y28" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Z28">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>45.05</v>
+        <v>46.019999999999996</v>
       </c>
       <c r="AC28">
         <v>15</v>
@@ -7434,30 +7434,30 @@
         <v>49.039000000000001</v>
       </c>
       <c r="AM28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN28">
         <v>0.92</v>
       </c>
       <c r="AO28">
-        <v>24.42</v>
+        <v>24.73</v>
       </c>
       <c r="AP28" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="AQ28">
-        <v>26.57</v>
+        <v>26.86</v>
       </c>
       <c r="AR28" t="s">
-        <v>582</v>
+        <v>664</v>
       </c>
       <c r="AS28">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>50.99</v>
+        <v>51.59</v>
       </c>
       <c r="AT28">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>46.910800000000002</v>
+        <v>47.462800000000009</v>
       </c>
       <c r="AW28">
         <v>13</v>
@@ -7536,26 +7536,26 @@
         <v>45.97</v>
       </c>
       <c r="T29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U29">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="V29">
-        <v>21.25</v>
+        <v>19.57</v>
       </c>
       <c r="W29" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="X29">
-        <v>26.98</v>
+        <v>26.14</v>
       </c>
       <c r="Y29" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Z29">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>48.230000000000004</v>
+        <v>45.71</v>
       </c>
       <c r="AC29">
         <v>13</v>
@@ -7584,30 +7584,30 @@
         <v>48.848999999999997</v>
       </c>
       <c r="AM29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN29">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="AO29">
-        <v>23.42</v>
+        <v>25.22</v>
       </c>
       <c r="AP29" t="s">
-        <v>697</v>
+        <v>579</v>
       </c>
       <c r="AQ29">
-        <v>25.48</v>
+        <v>26.27</v>
       </c>
       <c r="AR29" t="s">
-        <v>698</v>
+        <v>580</v>
       </c>
       <c r="AS29">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>48.900000000000006</v>
+        <v>51.489999999999995</v>
       </c>
       <c r="AT29">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>44.988000000000007</v>
+        <v>49.430399999999992</v>
       </c>
       <c r="AW29">
         <v>11</v>
@@ -7734,30 +7734,30 @@
         <v>48.731999999999999</v>
       </c>
       <c r="AM30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AN30">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="AO30">
-        <v>24.44</v>
+        <v>23.52</v>
       </c>
       <c r="AP30" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="AQ30">
-        <v>27.16</v>
+        <v>27.95</v>
       </c>
       <c r="AR30" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="AS30">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.6</v>
+        <v>51.47</v>
       </c>
       <c r="AT30">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>46.440000000000005</v>
+        <v>43.2348</v>
       </c>
       <c r="AW30">
         <v>15</v>
@@ -7836,26 +7836,26 @@
         <v>45.849999999999994</v>
       </c>
       <c r="T31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U31">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="V31">
-        <v>21.91</v>
+        <v>17.71</v>
       </c>
       <c r="W31" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="X31">
-        <v>28.01</v>
+        <v>27.75</v>
       </c>
       <c r="Y31" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="Z31">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>49.92</v>
+        <v>45.46</v>
       </c>
       <c r="AC31">
         <v>13</v>
@@ -7883,31 +7883,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>48.541599999999995</v>
       </c>
-      <c r="AM31">
-        <v>13</v>
-      </c>
-      <c r="AN31">
-        <v>0.9</v>
-      </c>
-      <c r="AO31">
-        <v>23.14</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>687</v>
-      </c>
-      <c r="AQ31">
-        <v>25.86</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>688</v>
-      </c>
-      <c r="AS31">
+      <c r="AM31" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>25.41</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>25.94</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="AS31" s="2">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49</v>
+        <v>51.35</v>
       </c>
       <c r="AT31">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>44.1</v>
+        <v>50.323</v>
       </c>
       <c r="AW31">
         <v>11</v>
@@ -7986,26 +7986,26 @@
         <v>45.7</v>
       </c>
       <c r="T32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U32">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="V32">
-        <v>21.7</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="W32" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="X32">
-        <v>27.99</v>
+        <v>26.29</v>
       </c>
       <c r="Y32" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="Z32">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>49.69</v>
+        <v>45.39</v>
       </c>
       <c r="AC32">
         <v>13</v>
@@ -8034,30 +8034,30 @@
         <v>48.363</v>
       </c>
       <c r="AM32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN32">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="AO32">
-        <v>22.03</v>
+        <v>25.28</v>
       </c>
       <c r="AP32" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="AQ32">
-        <v>24.72</v>
+        <v>26.05</v>
       </c>
       <c r="AR32" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="AS32">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>46.75</v>
+        <v>51.33</v>
       </c>
       <c r="AT32">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>41.607500000000002</v>
+        <v>49.790099999999995</v>
       </c>
       <c r="AW32">
         <v>12</v>
@@ -8136,26 +8136,26 @@
         <v>45.69</v>
       </c>
       <c r="T33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U33">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="V33">
-        <v>18.7</v>
+        <v>20.53</v>
       </c>
       <c r="W33" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="X33">
-        <v>24.13</v>
+        <v>24.83</v>
       </c>
       <c r="Y33" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="Z33">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>42.83</v>
+        <v>45.36</v>
       </c>
       <c r="AC33">
         <v>13</v>
@@ -8183,31 +8183,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>48.307499999999997</v>
       </c>
-      <c r="AM33" s="3">
-        <v>13</v>
-      </c>
-      <c r="AN33" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="AO33" s="3">
-        <v>24.32</v>
-      </c>
-      <c r="AP33" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="AQ33" s="3">
-        <v>28.71</v>
-      </c>
-      <c r="AR33" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="AS33" s="3">
+      <c r="AM33">
+        <v>11</v>
+      </c>
+      <c r="AN33">
+        <v>0.76</v>
+      </c>
+      <c r="AO33">
+        <v>22.18</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>681</v>
+      </c>
+      <c r="AQ33">
+        <v>29.12</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>682</v>
+      </c>
+      <c r="AS33">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>53.03</v>
+        <v>51.3</v>
       </c>
       <c r="AT33">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>45.075499999999998</v>
+        <v>38.988</v>
       </c>
       <c r="AW33">
         <v>12</v>
@@ -8286,26 +8286,26 @@
         <v>45.68</v>
       </c>
       <c r="T34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U34">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="V34">
-        <v>18.66</v>
+        <v>21.05</v>
       </c>
       <c r="W34" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="X34">
-        <v>24.23</v>
+        <v>24.28</v>
       </c>
       <c r="Y34" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="Z34">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>42.89</v>
+        <v>45.33</v>
       </c>
       <c r="AC34">
         <v>13</v>
@@ -8439,23 +8439,23 @@
         <v>14</v>
       </c>
       <c r="U35">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="V35">
-        <v>18.36</v>
+        <v>20.49</v>
       </c>
       <c r="W35" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="X35">
-        <v>23.87</v>
+        <v>24.81</v>
       </c>
       <c r="Y35" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Z35">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>42.230000000000004</v>
+        <v>45.3</v>
       </c>
       <c r="AC35">
         <v>13</v>
@@ -8484,30 +8484,30 @@
         <v>48.217199999999998</v>
       </c>
       <c r="AM35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN35">
-        <v>0.85</v>
+        <v>0.4</v>
       </c>
       <c r="AO35">
-        <v>22.96</v>
+        <v>14.75</v>
       </c>
       <c r="AP35" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="AQ35">
-        <v>26.97</v>
+        <v>36.51</v>
       </c>
       <c r="AR35" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
       <c r="AS35">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.93</v>
+        <v>51.26</v>
       </c>
       <c r="AT35">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>42.4405</v>
+        <v>20.504000000000001</v>
       </c>
       <c r="AW35">
         <v>11</v>
@@ -8586,26 +8586,26 @@
         <v>45.54</v>
       </c>
       <c r="T36">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U36">
-        <v>0.77</v>
+        <v>0.53</v>
       </c>
       <c r="V36">
-        <v>18.07</v>
+        <v>15.76</v>
       </c>
       <c r="W36" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="X36">
-        <v>23.43</v>
+        <v>29.46</v>
       </c>
       <c r="Y36" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="Z36">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>41.5</v>
+        <v>45.22</v>
       </c>
       <c r="AC36">
         <v>13</v>
@@ -8637,27 +8637,27 @@
         <v>13</v>
       </c>
       <c r="AN36">
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="AO36">
-        <v>22.65</v>
+        <v>24.8</v>
       </c>
       <c r="AP36" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="AQ36">
-        <v>26.71</v>
+        <v>26.44</v>
       </c>
       <c r="AR36" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="AS36">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.36</v>
+        <v>51.24</v>
       </c>
       <c r="AT36">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>41.955999999999996</v>
+        <v>48.165599999999998</v>
       </c>
       <c r="AW36">
         <v>11</v>
@@ -8739,23 +8739,23 @@
         <v>13</v>
       </c>
       <c r="U37">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="V37">
-        <v>20.14</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="W37" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="X37">
-        <v>26.65</v>
+        <v>24.99</v>
       </c>
       <c r="Y37" t="s">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="Z37">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>46.79</v>
+        <v>45.05</v>
       </c>
       <c r="AC37">
         <v>13</v>
@@ -8783,31 +8783,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>48.1096</v>
       </c>
-      <c r="AM37">
-        <v>12</v>
-      </c>
-      <c r="AN37">
-        <v>0.84</v>
-      </c>
-      <c r="AO37">
-        <v>23.87</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>623</v>
-      </c>
-      <c r="AQ37">
-        <v>28.59</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>624</v>
-      </c>
-      <c r="AS37">
+      <c r="AM37" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>25.47</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>25.72</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AS37" s="2">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.46</v>
+        <v>51.19</v>
       </c>
       <c r="AT37">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>44.066400000000002</v>
+        <v>50.678100000000001</v>
       </c>
       <c r="AW37">
         <v>13</v>
@@ -8886,26 +8886,26 @@
         <v>45.46</v>
       </c>
       <c r="T38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U38">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="V38">
-        <v>19.3</v>
+        <v>18.3</v>
       </c>
       <c r="W38" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="X38">
-        <v>25.43</v>
+        <v>26.69</v>
       </c>
       <c r="Y38" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z38">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>44.730000000000004</v>
+        <v>44.99</v>
       </c>
       <c r="AC38">
         <v>12</v>
@@ -8934,30 +8934,30 @@
         <v>47.573999999999998</v>
       </c>
       <c r="AM38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN38">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="AO38">
-        <v>23.9</v>
+        <v>24.42</v>
       </c>
       <c r="AP38" t="s">
-        <v>665</v>
+        <v>581</v>
       </c>
       <c r="AQ38">
-        <v>28.31</v>
+        <v>26.57</v>
       </c>
       <c r="AR38" t="s">
-        <v>666</v>
+        <v>582</v>
       </c>
       <c r="AS38">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.209999999999994</v>
+        <v>50.99</v>
       </c>
       <c r="AT38">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>43.856399999999994</v>
+        <v>46.910800000000002</v>
       </c>
       <c r="AW38">
         <v>14</v>
@@ -9036,26 +9036,26 @@
         <v>45.43</v>
       </c>
       <c r="T39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U39">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="V39">
-        <v>18.850000000000001</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="W39" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="X39">
-        <v>24.74</v>
+        <v>27.92</v>
       </c>
       <c r="Y39" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Z39">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.59</v>
+        <v>44.930000000000007</v>
       </c>
       <c r="AC39">
         <v>12</v>
@@ -9084,30 +9084,30 @@
         <v>47.304000000000002</v>
       </c>
       <c r="AM39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN39">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="AO39">
-        <v>23.52</v>
+        <v>24.46</v>
       </c>
       <c r="AP39" t="s">
-        <v>583</v>
+        <v>677</v>
       </c>
       <c r="AQ39">
-        <v>27.95</v>
+        <v>26.34</v>
       </c>
       <c r="AR39" t="s">
-        <v>584</v>
+        <v>678</v>
       </c>
       <c r="AS39">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.47</v>
+        <v>50.8</v>
       </c>
       <c r="AT39">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>43.2348</v>
+        <v>47.244</v>
       </c>
       <c r="AW39">
         <v>11</v>
@@ -9189,23 +9189,23 @@
         <v>13</v>
       </c>
       <c r="U40">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="V40">
-        <v>19.57</v>
+        <v>19.3</v>
       </c>
       <c r="W40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X40">
-        <v>26.14</v>
+        <v>25.43</v>
       </c>
       <c r="Y40" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="Z40">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>45.71</v>
+        <v>44.730000000000004</v>
       </c>
       <c r="AC40">
         <v>14</v>
@@ -9234,30 +9234,30 @@
         <v>47.232800000000005</v>
       </c>
       <c r="AM40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN40">
-        <v>0.84</v>
+        <v>0.68</v>
       </c>
       <c r="AO40">
-        <v>22.52</v>
+        <v>20.56</v>
       </c>
       <c r="AP40" t="s">
-        <v>699</v>
+        <v>649</v>
       </c>
       <c r="AQ40">
-        <v>26.86</v>
+        <v>30.2</v>
       </c>
       <c r="AR40" t="s">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="AS40">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.379999999999995</v>
+        <v>50.76</v>
       </c>
       <c r="AT40">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>41.479199999999992</v>
+        <v>34.516800000000003</v>
       </c>
       <c r="AW40">
         <v>11</v>
@@ -9336,26 +9336,26 @@
         <v>45.27</v>
       </c>
       <c r="T41">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U41">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="V41">
-        <v>19.760000000000002</v>
+        <v>21.37</v>
       </c>
       <c r="W41" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="X41">
-        <v>26.59</v>
+        <v>23.32</v>
       </c>
       <c r="Y41" t="s">
-        <v>360</v>
+        <v>419</v>
       </c>
       <c r="Z41">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>46.35</v>
+        <v>44.69</v>
       </c>
       <c r="AC41">
         <v>12</v>
@@ -9387,27 +9387,27 @@
         <v>12</v>
       </c>
       <c r="AN41">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="AO41">
-        <v>23.58</v>
+        <v>21.76</v>
       </c>
       <c r="AP41" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="AQ41">
-        <v>28.34</v>
+        <v>28.56</v>
       </c>
       <c r="AR41" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="AS41">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.92</v>
+        <v>50.32</v>
       </c>
       <c r="AT41">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>43.093600000000002</v>
+        <v>38.243200000000002</v>
       </c>
       <c r="AW41" s="2">
         <v>12</v>
@@ -9486,26 +9486,26 @@
         <v>45.239999999999995</v>
       </c>
       <c r="T42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U42">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="V42">
-        <v>19.100000000000001</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="W42" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="X42">
-        <v>26.29</v>
+        <v>27.93</v>
       </c>
       <c r="Y42" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="Z42">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>45.39</v>
+        <v>44.67</v>
       </c>
       <c r="AC42">
         <v>12</v>
@@ -9534,30 +9534,30 @@
         <v>46.484699999999997</v>
       </c>
       <c r="AM42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN42">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="AO42">
-        <v>22.25</v>
+        <v>20.21</v>
       </c>
       <c r="AP42" t="s">
-        <v>689</v>
+        <v>605</v>
       </c>
       <c r="AQ42">
-        <v>27.23</v>
+        <v>29.91</v>
       </c>
       <c r="AR42" t="s">
-        <v>690</v>
+        <v>606</v>
       </c>
       <c r="AS42">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.480000000000004</v>
+        <v>50.120000000000005</v>
       </c>
       <c r="AT42">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>40.573599999999999</v>
+        <v>34.081600000000009</v>
       </c>
       <c r="AW42">
         <v>15</v>
@@ -9636,26 +9636,26 @@
         <v>45.2</v>
       </c>
       <c r="T43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U43">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="V43">
-        <v>20.48</v>
+        <v>20.75</v>
       </c>
       <c r="W43" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="X43">
-        <v>28.48</v>
+        <v>23.81</v>
       </c>
       <c r="Y43" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Z43">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>48.96</v>
+        <v>44.56</v>
       </c>
       <c r="AC43">
         <v>12</v>
@@ -9684,30 +9684,30 @@
         <v>46.305000000000007</v>
       </c>
       <c r="AM43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN43">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="AO43">
-        <v>23.19</v>
+        <v>24.65</v>
       </c>
       <c r="AP43" t="s">
-        <v>569</v>
+        <v>651</v>
       </c>
       <c r="AQ43">
-        <v>28.7</v>
+        <v>25.29</v>
       </c>
       <c r="AR43" t="s">
-        <v>570</v>
+        <v>652</v>
       </c>
       <c r="AS43">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.89</v>
+        <v>49.94</v>
       </c>
       <c r="AT43">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>42.030900000000003</v>
+        <v>48.441799999999994</v>
       </c>
       <c r="AW43">
         <v>11</v>
@@ -9785,27 +9785,27 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>45.08</v>
       </c>
-      <c r="T44" s="3">
-        <v>13</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0.71</v>
-      </c>
-      <c r="V44" s="3">
-        <v>20.85</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X44" s="3">
-        <v>29.22</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="T44">
+        <v>15</v>
+      </c>
+      <c r="U44">
+        <v>0.9</v>
+      </c>
+      <c r="V44">
+        <v>21.08</v>
+      </c>
+      <c r="W44" t="s">
+        <v>10</v>
+      </c>
+      <c r="X44">
+        <v>23.46</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z44">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>50.07</v>
+        <v>44.54</v>
       </c>
       <c r="AC44">
         <v>12</v>
@@ -9834,30 +9834,30 @@
         <v>46.143000000000001</v>
       </c>
       <c r="AM44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN44">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="AO44">
-        <v>21.22</v>
+        <v>22.96</v>
       </c>
       <c r="AP44" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="AQ44">
-        <v>26.18</v>
+        <v>26.97</v>
       </c>
       <c r="AR44" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="AS44">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>47.4</v>
+        <v>49.93</v>
       </c>
       <c r="AT44">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>38.393999999999998</v>
+        <v>42.4405</v>
       </c>
       <c r="AW44">
         <v>11</v>
@@ -9936,26 +9936,26 @@
         <v>45.08</v>
       </c>
       <c r="T45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U45">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="V45">
-        <v>19.48</v>
+        <v>16.75</v>
       </c>
       <c r="W45" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="X45">
-        <v>27.84</v>
+        <v>27.76</v>
       </c>
       <c r="Y45" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="Z45">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>47.32</v>
+        <v>44.510000000000005</v>
       </c>
       <c r="AC45">
         <v>12</v>
@@ -9983,31 +9983,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>46.109700000000004</v>
       </c>
-      <c r="AM45" s="3">
-        <v>12</v>
-      </c>
-      <c r="AN45" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="AO45" s="3">
-        <v>23.09</v>
-      </c>
-      <c r="AP45" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="AQ45" s="3">
-        <v>30.32</v>
-      </c>
-      <c r="AR45" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="AS45" s="3">
+      <c r="AM45">
+        <v>11</v>
+      </c>
+      <c r="AN45">
+        <v>0.73</v>
+      </c>
+      <c r="AO45">
+        <v>21.06</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>691</v>
+      </c>
+      <c r="AQ45">
+        <v>28.83</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>692</v>
+      </c>
+      <c r="AS45">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>53.41</v>
+        <v>49.89</v>
       </c>
       <c r="AT45">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>40.5916</v>
+        <v>36.419699999999999</v>
       </c>
       <c r="AW45">
         <v>11</v>
@@ -10089,23 +10089,23 @@
         <v>12</v>
       </c>
       <c r="U46">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="V46">
-        <v>17.920000000000002</v>
+        <v>17.87</v>
       </c>
       <c r="W46" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="X46">
-        <v>25.76</v>
+        <v>26.04</v>
       </c>
       <c r="Y46" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="Z46">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.680000000000007</v>
+        <v>43.91</v>
       </c>
       <c r="AC46">
         <v>12</v>
@@ -10134,30 +10134,30 @@
         <v>45.971199999999996</v>
       </c>
       <c r="AM46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN46">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="AO46">
-        <v>22.79</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="AP46" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AQ46">
-        <v>29.98</v>
+        <v>30.37</v>
       </c>
       <c r="AR46" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="AS46">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.769999999999996</v>
+        <v>49.86</v>
       </c>
       <c r="AT46">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>40.105199999999996</v>
+        <v>31.910399999999999</v>
       </c>
       <c r="AW46">
         <v>14</v>
@@ -10236,26 +10236,26 @@
         <v>45</v>
       </c>
       <c r="T47">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U47">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="V47">
-        <v>17.73</v>
+        <v>20.85</v>
       </c>
       <c r="W47" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="X47">
-        <v>25.42</v>
+        <v>22.97</v>
       </c>
       <c r="Y47" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="Z47">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.150000000000006</v>
+        <v>43.82</v>
       </c>
       <c r="AC47">
         <v>12</v>
@@ -10287,27 +10287,27 @@
         <v>11</v>
       </c>
       <c r="AN47">
-        <v>0.76</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AO47">
-        <v>22.18</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="AP47" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="AQ47">
-        <v>29.12</v>
+        <v>31.73</v>
       </c>
       <c r="AR47" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="AS47">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.3</v>
+        <v>49.74</v>
       </c>
       <c r="AT47">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>38.988</v>
+        <v>28.351799999999997</v>
       </c>
       <c r="AW47">
         <v>12</v>
@@ -10389,23 +10389,23 @@
         <v>12</v>
       </c>
       <c r="U48">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="V48">
-        <v>20.28</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="W48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X48">
-        <v>29.41</v>
+        <v>25.76</v>
       </c>
       <c r="Y48" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="Z48">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>49.69</v>
+        <v>43.680000000000007</v>
       </c>
       <c r="AC48" s="1">
         <v>15</v>
@@ -10434,30 +10434,30 @@
         <v>45.871200000000002</v>
       </c>
       <c r="AM48">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN48">
-        <v>0.76</v>
+        <v>0.94</v>
       </c>
       <c r="AO48">
-        <v>21.76</v>
+        <v>23.95</v>
       </c>
       <c r="AP48" t="s">
-        <v>647</v>
+        <v>685</v>
       </c>
       <c r="AQ48">
-        <v>28.56</v>
+        <v>25.56</v>
       </c>
       <c r="AR48" t="s">
-        <v>648</v>
+        <v>686</v>
       </c>
       <c r="AS48">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>50.32</v>
+        <v>49.51</v>
       </c>
       <c r="AT48">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>38.243200000000002</v>
+        <v>46.539399999999993</v>
       </c>
       <c r="AW48" s="2">
         <v>13</v>
@@ -10536,26 +10536,26 @@
         <v>44.95</v>
       </c>
       <c r="T49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U49">
-        <v>0.69</v>
+        <v>0.61</v>
       </c>
       <c r="V49">
-        <v>19.18</v>
+        <v>16.52</v>
       </c>
       <c r="W49" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="X49">
-        <v>27.95</v>
+        <v>27.16</v>
       </c>
       <c r="Y49" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="Z49">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>47.129999999999995</v>
+        <v>43.68</v>
       </c>
       <c r="AC49" s="4">
         <v>12</v>
@@ -10587,27 +10587,27 @@
         <v>12</v>
       </c>
       <c r="AN49">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="AO49">
-        <v>21.29</v>
+        <v>22.25</v>
       </c>
       <c r="AP49" t="s">
-        <v>603</v>
+        <v>689</v>
       </c>
       <c r="AQ49">
-        <v>28.15</v>
+        <v>27.23</v>
       </c>
       <c r="AR49" t="s">
-        <v>604</v>
+        <v>690</v>
       </c>
       <c r="AS49">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.44</v>
+        <v>49.480000000000004</v>
       </c>
       <c r="AT49">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>37.574399999999997</v>
+        <v>40.573599999999999</v>
       </c>
       <c r="AW49">
         <v>15</v>
@@ -10685,27 +10685,27 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>44.8</v>
       </c>
-      <c r="T50">
-        <v>12</v>
-      </c>
-      <c r="U50">
-        <v>0.69</v>
-      </c>
-      <c r="V50">
-        <v>18.3</v>
-      </c>
-      <c r="W50" t="s">
-        <v>81</v>
-      </c>
-      <c r="X50">
-        <v>26.69</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>381</v>
-      </c>
-      <c r="Z50">
+      <c r="T50" s="2">
+        <v>15</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="V50" s="2">
+        <v>20.98</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X50" s="2">
+        <v>22.62</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z50" s="2">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>44.99</v>
+        <v>43.6</v>
       </c>
       <c r="AC50">
         <v>11</v>
@@ -10740,24 +10740,24 @@
         <v>0.75</v>
       </c>
       <c r="AO50">
-        <v>22.67</v>
+        <v>21.17</v>
       </c>
       <c r="AP50" t="s">
-        <v>585</v>
+        <v>701</v>
       </c>
       <c r="AQ50">
-        <v>30.23</v>
+        <v>28.3</v>
       </c>
       <c r="AR50" t="s">
-        <v>586</v>
+        <v>702</v>
       </c>
       <c r="AS50">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.900000000000006</v>
+        <v>49.47</v>
       </c>
       <c r="AT50">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>39.675000000000004</v>
+        <v>37.102499999999999</v>
       </c>
       <c r="AW50">
         <v>12</v>
@@ -10836,26 +10836,26 @@
         <v>44.75</v>
       </c>
       <c r="T51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U51">
-        <v>0.69</v>
+        <v>0.76</v>
       </c>
       <c r="V51">
-        <v>17.87</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="W51" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="X51">
-        <v>26.04</v>
+        <v>24.74</v>
       </c>
       <c r="Y51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z51">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.91</v>
+        <v>43.59</v>
       </c>
       <c r="AC51" s="1">
         <v>14</v>
@@ -10884,30 +10884,30 @@
         <v>43.603999999999999</v>
       </c>
       <c r="AM51">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AN51">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="AO51">
-        <v>22.38</v>
+        <v>24.24</v>
       </c>
       <c r="AP51" t="s">
-        <v>633</v>
+        <v>695</v>
       </c>
       <c r="AQ51">
-        <v>29.98</v>
+        <v>25.2</v>
       </c>
       <c r="AR51" t="s">
-        <v>634</v>
+        <v>696</v>
       </c>
       <c r="AS51">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.36</v>
+        <v>49.44</v>
       </c>
       <c r="AT51">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>39.269999999999996</v>
+        <v>47.462399999999995</v>
       </c>
       <c r="AW51">
         <v>15</v>
@@ -10986,26 +10986,26 @@
         <v>44.65</v>
       </c>
       <c r="T52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U52">
-        <v>0.69</v>
+        <v>0.88</v>
       </c>
       <c r="V52">
-        <v>17.63</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="W52" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="X52">
-        <v>25.41</v>
+        <v>23.15</v>
       </c>
       <c r="Y52" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="Z52">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.04</v>
+        <v>43.55</v>
       </c>
       <c r="AC52">
         <v>11</v>
@@ -11034,30 +11034,30 @@
         <v>43.222200000000001</v>
       </c>
       <c r="AM52">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AN52">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="AO52">
-        <v>21.17</v>
+        <v>23.85</v>
       </c>
       <c r="AP52" t="s">
-        <v>701</v>
+        <v>643</v>
       </c>
       <c r="AQ52">
-        <v>28.3</v>
+        <v>25.59</v>
       </c>
       <c r="AR52" t="s">
-        <v>702</v>
+        <v>644</v>
       </c>
       <c r="AS52">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.47</v>
+        <v>49.44</v>
       </c>
       <c r="AT52">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>37.102499999999999</v>
+        <v>45.979199999999999</v>
       </c>
       <c r="AW52">
         <v>11</v>
@@ -11136,26 +11136,26 @@
         <v>44.64</v>
       </c>
       <c r="T53">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U53">
-        <v>0.69</v>
+        <v>0.88</v>
       </c>
       <c r="V53">
-        <v>17.09</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="W53" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="X53">
-        <v>24.73</v>
+        <v>23.2</v>
       </c>
       <c r="Y53" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="Z53">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>41.82</v>
+        <v>43.55</v>
       </c>
       <c r="AC53">
         <v>13</v>
@@ -11184,30 +11184,30 @@
         <v>43.184399999999997</v>
       </c>
       <c r="AM53">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AN53">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AO53">
-        <v>19.27</v>
+        <v>21.29</v>
       </c>
       <c r="AP53" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AQ53">
-        <v>26.14</v>
+        <v>28.15</v>
       </c>
       <c r="AR53" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AS53">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>45.41</v>
+        <v>49.44</v>
       </c>
       <c r="AT53">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>33.603400000000001</v>
+        <v>37.574399999999997</v>
       </c>
       <c r="AW53" s="2">
         <v>14</v>
@@ -11286,26 +11286,26 @@
         <v>44.480000000000004</v>
       </c>
       <c r="T54">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U54">
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="V54">
-        <v>18.53</v>
+        <v>19.73</v>
       </c>
       <c r="W54" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="X54">
-        <v>27.95</v>
+        <v>23.68</v>
       </c>
       <c r="Y54" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="Z54">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>46.480000000000004</v>
+        <v>43.41</v>
       </c>
       <c r="AC54">
         <v>11</v>
@@ -11334,30 +11334,30 @@
         <v>42.944200000000002</v>
       </c>
       <c r="AM54">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN54">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="AO54">
-        <v>22.07</v>
+        <v>24.37</v>
       </c>
       <c r="AP54" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="AQ54">
-        <v>30.43</v>
+        <v>25.06</v>
       </c>
       <c r="AR54" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="AS54">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>52.5</v>
+        <v>49.43</v>
       </c>
       <c r="AT54">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>38.324999999999996</v>
+        <v>47.947099999999999</v>
       </c>
       <c r="AW54">
         <v>12</v>
@@ -11439,23 +11439,23 @@
         <v>12</v>
       </c>
       <c r="U55">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="V55">
-        <v>18.34</v>
+        <v>17.73</v>
       </c>
       <c r="W55" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="X55">
-        <v>28.02</v>
+        <v>25.42</v>
       </c>
       <c r="Y55" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Z55">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>46.36</v>
+        <v>43.150000000000006</v>
       </c>
       <c r="AC55">
         <v>11</v>
@@ -11484,30 +11484,30 @@
         <v>42.935900000000004</v>
       </c>
       <c r="AM55">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN55">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="AO55">
-        <v>21.06</v>
+        <v>22.52</v>
       </c>
       <c r="AP55" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="AQ55">
-        <v>28.83</v>
+        <v>26.86</v>
       </c>
       <c r="AR55" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="AS55">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.89</v>
+        <v>49.379999999999995</v>
       </c>
       <c r="AT55">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>36.419699999999999</v>
+        <v>41.479199999999992</v>
       </c>
       <c r="AW55">
         <v>13</v>
@@ -11585,27 +11585,27 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>44.37</v>
       </c>
-      <c r="T56" s="3">
-        <v>12</v>
-      </c>
-      <c r="U56" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="V56" s="3">
-        <v>19.79</v>
-      </c>
-      <c r="W56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="X56" s="3">
-        <v>30.97</v>
-      </c>
-      <c r="Y56" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z56" s="3">
+      <c r="T56">
+        <v>13</v>
+      </c>
+      <c r="U56">
+        <v>0.69</v>
+      </c>
+      <c r="V56">
+        <v>17.63</v>
+      </c>
+      <c r="W56" t="s">
+        <v>84</v>
+      </c>
+      <c r="X56">
+        <v>25.41</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z56">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>50.76</v>
+        <v>43.04</v>
       </c>
       <c r="AC56">
         <v>11</v>
@@ -11634,30 +11634,30 @@
         <v>42.678899999999999</v>
       </c>
       <c r="AM56">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN56">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
       <c r="AO56">
-        <v>20.21</v>
+        <v>24.14</v>
       </c>
       <c r="AP56" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="AQ56">
-        <v>27.95</v>
+        <v>25.22</v>
       </c>
       <c r="AR56" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="AS56">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>48.16</v>
+        <v>49.36</v>
       </c>
       <c r="AT56">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>34.675199999999997</v>
+        <v>47.385599999999997</v>
       </c>
       <c r="AW56">
         <v>12</v>
@@ -11736,26 +11736,26 @@
         <v>44.34</v>
       </c>
       <c r="T57">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U57">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="V57">
-        <v>17.71</v>
+        <v>18.66</v>
       </c>
       <c r="W57" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="X57">
-        <v>27.75</v>
+        <v>24.23</v>
       </c>
       <c r="Y57" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Z57">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>45.46</v>
+        <v>42.89</v>
       </c>
       <c r="AC57">
         <v>11</v>
@@ -11783,31 +11783,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>42.597900000000003</v>
       </c>
-      <c r="AM57" s="3">
-        <v>11</v>
-      </c>
-      <c r="AN57" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="AO57" s="3">
-        <v>22.23</v>
-      </c>
-      <c r="AP57" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="AQ57" s="3">
-        <v>32.6</v>
-      </c>
-      <c r="AR57" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="AS57" s="3">
+      <c r="AM57">
+        <v>13</v>
+      </c>
+      <c r="AN57">
+        <v>0.85</v>
+      </c>
+      <c r="AO57">
+        <v>22.65</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ57">
+        <v>26.71</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>602</v>
+      </c>
+      <c r="AS57">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>54.83</v>
+        <v>49.36</v>
       </c>
       <c r="AT57">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>37.284399999999998</v>
+        <v>41.955999999999996</v>
       </c>
       <c r="AW57">
         <v>11</v>
@@ -11886,26 +11886,26 @@
         <v>44.3</v>
       </c>
       <c r="T58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U58">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="V58">
-        <v>19.41</v>
+        <v>18.7</v>
       </c>
       <c r="W58" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="X58">
-        <v>30.57</v>
+        <v>24.13</v>
       </c>
       <c r="Y58" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="Z58">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>49.980000000000004</v>
+        <v>42.83</v>
       </c>
       <c r="AC58">
         <v>11</v>
@@ -11933,31 +11933,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>42.566199999999995</v>
       </c>
-      <c r="AM58" s="3">
-        <v>12</v>
-      </c>
-      <c r="AN58" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="AO58" s="3">
-        <v>21.59</v>
-      </c>
-      <c r="AP58" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="AQ58" s="3">
-        <v>31.63</v>
-      </c>
-      <c r="AR58" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="AS58" s="3">
+      <c r="AM58">
+        <v>15</v>
+      </c>
+      <c r="AN58">
+        <v>0.95</v>
+      </c>
+      <c r="AO58">
+        <v>24.04</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>641</v>
+      </c>
+      <c r="AQ58">
+        <v>25.26</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>642</v>
+      </c>
+      <c r="AS58">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>53.22</v>
+        <v>49.3</v>
       </c>
       <c r="AT58">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>36.189599999999999</v>
+        <v>46.834999999999994</v>
       </c>
       <c r="AW58">
         <v>12</v>
@@ -12039,23 +12039,23 @@
         <v>11</v>
       </c>
       <c r="U59">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="V59">
-        <v>18.559999999999999</v>
+        <v>16.12</v>
       </c>
       <c r="W59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X59">
-        <v>30.1</v>
+        <v>26.6</v>
       </c>
       <c r="Y59" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="Z59">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>48.66</v>
+        <v>42.72</v>
       </c>
       <c r="AC59">
         <v>11</v>
@@ -12083,31 +12083,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>42.437899999999992</v>
       </c>
-      <c r="AM59">
-        <v>11</v>
-      </c>
-      <c r="AN59">
-        <v>0.68</v>
-      </c>
-      <c r="AO59">
-        <v>20.56</v>
-      </c>
-      <c r="AP59" t="s">
-        <v>649</v>
-      </c>
-      <c r="AQ59">
-        <v>30.2</v>
-      </c>
-      <c r="AR59" t="s">
-        <v>650</v>
-      </c>
-      <c r="AS59">
+      <c r="AM59" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="AO59" s="2">
+        <v>24.43</v>
+      </c>
+      <c r="AP59" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="AQ59" s="2">
+        <v>24.86</v>
+      </c>
+      <c r="AR59" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="AS59" s="2">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>50.76</v>
+        <v>49.29</v>
       </c>
       <c r="AT59">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>34.516800000000003</v>
+        <v>48.304200000000002</v>
       </c>
       <c r="AW59">
         <v>13</v>
@@ -12186,26 +12186,26 @@
         <v>44.14</v>
       </c>
       <c r="T60">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U60">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="V60">
-        <v>18.68</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="W60" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="X60">
-        <v>30.6</v>
+        <v>23.05</v>
       </c>
       <c r="Y60" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="Z60">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>49.28</v>
+        <v>42.379999999999995</v>
       </c>
       <c r="AC60" s="1">
         <v>13</v>
@@ -12234,30 +12234,30 @@
         <v>41.621999999999993</v>
       </c>
       <c r="AM60">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN60">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="AO60">
-        <v>20.21</v>
+        <v>23.14</v>
       </c>
       <c r="AP60" t="s">
-        <v>605</v>
+        <v>687</v>
       </c>
       <c r="AQ60">
-        <v>29.91</v>
+        <v>25.86</v>
       </c>
       <c r="AR60" t="s">
-        <v>606</v>
+        <v>688</v>
       </c>
       <c r="AS60">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>50.120000000000005</v>
+        <v>49</v>
       </c>
       <c r="AT60">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>34.081600000000009</v>
+        <v>44.1</v>
       </c>
       <c r="AW60">
         <v>14</v>
@@ -12336,26 +12336,26 @@
         <v>44</v>
       </c>
       <c r="T61">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U61">
-        <v>0.61</v>
+        <v>0.88</v>
       </c>
       <c r="V61">
-        <v>17.88</v>
+        <v>19.82</v>
       </c>
       <c r="W61" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="X61">
-        <v>29.5</v>
+        <v>22.44</v>
       </c>
       <c r="Y61" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Z61">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>47.379999999999995</v>
+        <v>42.260000000000005</v>
       </c>
       <c r="AC61">
         <v>11</v>
@@ -12383,31 +12383,31 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>40.381799999999991</v>
       </c>
-      <c r="AM61" s="3">
-        <v>12</v>
-      </c>
-      <c r="AN61" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="AO61" s="3">
-        <v>21.28</v>
-      </c>
-      <c r="AP61" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="AQ61" s="3">
-        <v>32.770000000000003</v>
-      </c>
-      <c r="AR61" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="AS61" s="3">
+      <c r="AM61">
+        <v>13</v>
+      </c>
+      <c r="AN61">
+        <v>0.92</v>
+      </c>
+      <c r="AO61">
+        <v>23.42</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>697</v>
+      </c>
+      <c r="AQ61">
+        <v>25.48</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>698</v>
+      </c>
+      <c r="AS61">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>54.050000000000004</v>
+        <v>48.900000000000006</v>
       </c>
       <c r="AT61">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>35.132500000000007</v>
+        <v>44.988000000000007</v>
       </c>
       <c r="AW61" s="2">
         <v>15</v>
@@ -12486,26 +12486,26 @@
         <v>43.97</v>
       </c>
       <c r="T62">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U62">
-        <v>0.61</v>
+        <v>0.77</v>
       </c>
       <c r="V62">
-        <v>17.010000000000002</v>
+        <v>18.36</v>
       </c>
       <c r="W62" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="X62">
-        <v>27.92</v>
+        <v>23.87</v>
       </c>
       <c r="Y62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Z62">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>44.930000000000007</v>
+        <v>42.230000000000004</v>
       </c>
       <c r="AC62" s="11">
         <v>12</v>
@@ -12537,27 +12537,27 @@
         <v>14</v>
       </c>
       <c r="AN62">
-        <v>0.65</v>
+        <v>0.93</v>
       </c>
       <c r="AO62">
-        <v>18.600000000000001</v>
+        <v>23.55</v>
       </c>
       <c r="AP62" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="AQ62">
-        <v>28.6</v>
+        <v>25.34</v>
       </c>
       <c r="AR62" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="AS62">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>47.2</v>
+        <v>48.89</v>
       </c>
       <c r="AT62">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>30.680000000000003</v>
+        <v>45.467700000000001</v>
       </c>
       <c r="AW62">
         <v>11</v>
@@ -12636,26 +12636,26 @@
         <v>43.92</v>
       </c>
       <c r="T63">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U63">
-        <v>0.61</v>
+        <v>0.9</v>
       </c>
       <c r="V63">
-        <v>16.52</v>
+        <v>19.86</v>
       </c>
       <c r="W63" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="X63">
-        <v>27.16</v>
+        <v>22.15</v>
       </c>
       <c r="Y63" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Z63">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>43.68</v>
+        <v>42.01</v>
       </c>
       <c r="AC63" s="10">
         <v>15</v>
@@ -12684,30 +12684,30 @@
         <v>39.210900000000002</v>
       </c>
       <c r="AM63">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN63">
-        <v>0.64</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AO63">
-        <v>19.489999999999998</v>
+        <v>17.77</v>
       </c>
       <c r="AP63" t="s">
-        <v>659</v>
+        <v>611</v>
       </c>
       <c r="AQ63">
-        <v>30.37</v>
+        <v>30.95</v>
       </c>
       <c r="AR63" t="s">
-        <v>660</v>
+        <v>612</v>
       </c>
       <c r="AS63">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.86</v>
+        <v>48.72</v>
       </c>
       <c r="AT63">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>31.910399999999999</v>
+        <v>27.770399999999999</v>
       </c>
       <c r="AW63">
         <v>13</v>
@@ -12786,26 +12786,26 @@
         <v>43.83</v>
       </c>
       <c r="T64">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U64">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="V64">
-        <v>16.12</v>
+        <v>19.25</v>
       </c>
       <c r="W64" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="X64">
-        <v>26.6</v>
+        <v>22.65</v>
       </c>
       <c r="Y64" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Z64">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>42.72</v>
+        <v>41.9</v>
       </c>
       <c r="AC64">
         <v>12</v>
@@ -12833,61 +12833,61 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>38.623199999999997</v>
       </c>
-      <c r="AM64" s="3">
-        <v>11</v>
-      </c>
-      <c r="AN64" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="AO64" s="3">
-        <v>20.77</v>
-      </c>
-      <c r="AP64" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="AQ64" s="3">
-        <v>33.94</v>
-      </c>
-      <c r="AR64" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="AS64" s="3">
+      <c r="AM64">
+        <v>12</v>
+      </c>
+      <c r="AN64">
+        <v>0.5</v>
+      </c>
+      <c r="AO64">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>613</v>
+      </c>
+      <c r="AQ64">
+        <v>32.33</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>614</v>
+      </c>
+      <c r="AS64">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>54.709999999999994</v>
+        <v>48.64</v>
       </c>
       <c r="AT64">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>33.373099999999994</v>
-      </c>
-      <c r="AW64" s="2">
-        <v>15</v>
-      </c>
-      <c r="AX64" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="AY64" s="2">
-        <v>26.24</v>
-      </c>
-      <c r="AZ64" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="BA64" s="2">
-        <v>26.53</v>
-      </c>
-      <c r="BB64" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="BC64" s="2">
+        <v>24.32</v>
+      </c>
+      <c r="AW64">
+        <v>13</v>
+      </c>
+      <c r="AX64">
+        <v>0.76</v>
+      </c>
+      <c r="AY64">
+        <v>22.79</v>
+      </c>
+      <c r="AZ64" t="s">
+        <v>667</v>
+      </c>
+      <c r="BA64">
+        <v>29.98</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>668</v>
+      </c>
+      <c r="BC64">
         <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
         <v>52.769999999999996</v>
       </c>
-      <c r="BD64" s="2">
+      <c r="BD64">
         <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
-        <v>0.52770000000000039</v>
-      </c>
-      <c r="BE64" s="2">
+        <v>12.664799999999998</v>
+      </c>
+      <c r="BE64">
         <f>ABS(1-Table1[[#This Row],[Column2]])</f>
-        <v>1.0000000000000009E-2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="65" spans="2:57" x14ac:dyDescent="0.3">
@@ -12936,26 +12936,26 @@
         <v>43.83</v>
       </c>
       <c r="T65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U65">
-        <v>0.6</v>
+        <v>0.69</v>
       </c>
       <c r="V65">
-        <v>16.739999999999998</v>
+        <v>17.09</v>
       </c>
       <c r="W65" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="X65">
-        <v>27.93</v>
+        <v>24.73</v>
       </c>
       <c r="Y65" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="Z65">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>44.67</v>
+        <v>41.82</v>
       </c>
       <c r="AC65" s="1">
         <v>14</v>
@@ -12983,61 +12983,61 @@
         <f>Table6[[#This Row],[Column7]]*Table6[[#This Row],[Column2]]</f>
         <v>36.856000000000002</v>
       </c>
-      <c r="AM65" s="3">
-        <v>11</v>
-      </c>
-      <c r="AN65" s="3">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AO65" s="3">
-        <v>20.27</v>
-      </c>
-      <c r="AP65" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="AQ65" s="3">
-        <v>34.94</v>
-      </c>
-      <c r="AR65" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="AS65" s="3">
+      <c r="AM65">
+        <v>13</v>
+      </c>
+      <c r="AN65">
+        <v>0.72</v>
+      </c>
+      <c r="AO65">
+        <v>20.21</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>657</v>
+      </c>
+      <c r="AQ65">
+        <v>27.95</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>658</v>
+      </c>
+      <c r="AS65">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>55.209999999999994</v>
+        <v>48.16</v>
       </c>
       <c r="AT65">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>32.021799999999992</v>
-      </c>
-      <c r="AW65">
-        <v>13</v>
-      </c>
-      <c r="AX65">
-        <v>0.76</v>
-      </c>
-      <c r="AY65">
-        <v>22.79</v>
-      </c>
-      <c r="AZ65" t="s">
-        <v>667</v>
-      </c>
-      <c r="BA65">
-        <v>29.98</v>
-      </c>
-      <c r="BB65" t="s">
-        <v>668</v>
-      </c>
-      <c r="BC65">
+        <v>34.675199999999997</v>
+      </c>
+      <c r="AW65" s="2">
+        <v>15</v>
+      </c>
+      <c r="AX65" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="AY65" s="2">
+        <v>26.24</v>
+      </c>
+      <c r="AZ65" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="BA65" s="2">
+        <v>26.53</v>
+      </c>
+      <c r="BB65" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="BC65" s="2">
         <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
         <v>52.769999999999996</v>
       </c>
-      <c r="BD65">
+      <c r="BD65" s="2">
         <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
-        <v>12.664799999999998</v>
-      </c>
-      <c r="BE65">
+        <v>0.52770000000000039</v>
+      </c>
+      <c r="BE65" s="2">
         <f>ABS(1-Table1[[#This Row],[Column2]])</f>
-        <v>0.24</v>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="66" spans="2:57" x14ac:dyDescent="0.3">
@@ -13086,26 +13086,26 @@
         <v>43.7</v>
       </c>
       <c r="T66">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U66">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="V66">
-        <v>16.75</v>
+        <v>18.07</v>
       </c>
       <c r="W66" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="X66">
-        <v>27.76</v>
+        <v>23.43</v>
       </c>
       <c r="Y66" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="Z66">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>44.510000000000005</v>
+        <v>41.5</v>
       </c>
       <c r="AC66">
         <v>11</v>
@@ -13134,30 +13134,30 @@
         <v>36.052499999999995</v>
       </c>
       <c r="AM66">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AN66">
-        <v>0.56999999999999995</v>
+        <v>0.81</v>
       </c>
       <c r="AO66">
-        <v>18.010000000000002</v>
+        <v>21.22</v>
       </c>
       <c r="AP66" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="AQ66">
-        <v>31.73</v>
+        <v>26.18</v>
       </c>
       <c r="AR66" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="AS66">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>49.74</v>
+        <v>47.4</v>
       </c>
       <c r="AT66">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>28.351799999999997</v>
+        <v>38.393999999999998</v>
       </c>
       <c r="AW66">
         <v>15</v>
@@ -13236,26 +13236,26 @@
         <v>43.66</v>
       </c>
       <c r="T67">
+        <v>15</v>
+      </c>
+      <c r="U67">
+        <v>0.9</v>
+      </c>
+      <c r="V67">
+        <v>19.63</v>
+      </c>
+      <c r="W67" t="s">
         <v>11</v>
       </c>
-      <c r="U67">
-        <v>0.59</v>
-      </c>
-      <c r="V67">
-        <v>17.27</v>
-      </c>
-      <c r="W67" t="s">
-        <v>120</v>
-      </c>
       <c r="X67">
-        <v>29.48</v>
+        <v>21.77</v>
       </c>
       <c r="Y67" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="Z67">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>46.75</v>
+        <v>41.4</v>
       </c>
       <c r="AC67" s="1">
         <v>11</v>
@@ -13284,30 +13284,30 @@
         <v>34.824999999999996</v>
       </c>
       <c r="AM67">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN67">
-        <v>0.56999999999999995</v>
+        <v>0.65</v>
       </c>
       <c r="AO67">
-        <v>17.77</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AP67" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AQ67">
-        <v>30.95</v>
+        <v>28.6</v>
       </c>
       <c r="AR67" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AS67">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>48.72</v>
+        <v>47.2</v>
       </c>
       <c r="AT67">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>27.770399999999999</v>
+        <v>30.680000000000003</v>
       </c>
       <c r="AW67">
         <v>14</v>
@@ -13385,27 +13385,27 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>43.620000000000005</v>
       </c>
-      <c r="T68" s="3">
-        <v>11</v>
-      </c>
-      <c r="U68" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="V68" s="3">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="W68" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="X68" s="3">
-        <v>32.33</v>
-      </c>
-      <c r="Y68" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z68" s="3">
+      <c r="T68">
+        <v>14</v>
+      </c>
+      <c r="U68">
+        <v>0.85</v>
+      </c>
+      <c r="V68">
+        <v>19.05</v>
+      </c>
+      <c r="W68" t="s">
+        <v>22</v>
+      </c>
+      <c r="X68">
+        <v>22.3</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z68">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>50.64</v>
+        <v>41.35</v>
       </c>
       <c r="AC68" s="1">
         <v>13</v>
@@ -13434,30 +13434,30 @@
         <v>34.543599999999998</v>
       </c>
       <c r="AM68">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN68">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AO68">
-        <v>16.309999999999999</v>
+        <v>22.03</v>
       </c>
       <c r="AP68" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="AQ68">
-        <v>32.33</v>
+        <v>24.72</v>
       </c>
       <c r="AR68" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="AS68">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>48.64</v>
+        <v>46.75</v>
       </c>
       <c r="AT68">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>24.32</v>
+        <v>41.607500000000002</v>
       </c>
       <c r="AW68">
         <v>14</v>
@@ -13536,26 +13536,26 @@
         <v>43.510000000000005</v>
       </c>
       <c r="T69">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U69">
-        <v>0.56999999999999995</v>
+        <v>0.85</v>
       </c>
       <c r="V69">
-        <v>16.78</v>
+        <v>18.93</v>
       </c>
       <c r="W69" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="X69">
-        <v>29.24</v>
+        <v>22.26</v>
       </c>
       <c r="Y69" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="Z69">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>46.019999999999996</v>
+        <v>41.19</v>
       </c>
       <c r="AC69" s="1">
         <v>12</v>
@@ -13584,30 +13584,30 @@
         <v>31.391999999999999</v>
       </c>
       <c r="AM69">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AN69">
-        <v>0.4</v>
+        <v>0.74</v>
       </c>
       <c r="AO69">
-        <v>14.75</v>
+        <v>19.27</v>
       </c>
       <c r="AP69" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="AQ69">
-        <v>36.51</v>
+        <v>26.14</v>
       </c>
       <c r="AR69" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="AS69">
         <f>Table7[[#This Row],[Column3]]+Table7[[#This Row],[Column5]]</f>
-        <v>51.26</v>
+        <v>45.41</v>
       </c>
       <c r="AT69">
         <f>Table7[[#This Row],[Column7]]*Table7[[#This Row],[Column2]]</f>
-        <v>20.504000000000001</v>
+        <v>33.603400000000001</v>
       </c>
       <c r="AW69">
         <v>13</v>
@@ -13685,27 +13685,27 @@
         <f>Table4[[#This Row],[Column3]]+Table4[[#This Row],[Column5]]</f>
         <v>43.5</v>
       </c>
-      <c r="T70" s="3">
-        <v>11</v>
-      </c>
-      <c r="U70" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="V70" s="3">
-        <v>18.579999999999998</v>
-      </c>
-      <c r="W70" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="X70" s="3">
-        <v>32.92</v>
-      </c>
-      <c r="Y70" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z70" s="3">
+      <c r="T70">
+        <v>15</v>
+      </c>
+      <c r="U70">
+        <v>0.9</v>
+      </c>
+      <c r="V70">
+        <v>18.98</v>
+      </c>
+      <c r="W70" t="s">
+        <v>13</v>
+      </c>
+      <c r="X70">
+        <v>21.07</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z70">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>51.5</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="AC70">
         <v>11</v>
@@ -13810,26 +13810,26 @@
         <v>43.43</v>
       </c>
       <c r="T71">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U71">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="V71">
-        <v>15.76</v>
+        <v>18.41</v>
       </c>
       <c r="W71" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="X71">
-        <v>29.46</v>
+        <v>21.6</v>
       </c>
       <c r="Y71" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="Z71">
         <f>Table5[[#This Row],[Column3]]+Table5[[#This Row],[Column5]]</f>
-        <v>45.22</v>
+        <v>40.010000000000005</v>
       </c>
       <c r="AW71">
         <v>12</v>
@@ -13908,22 +13908,22 @@
         <v>43.36</v>
       </c>
       <c r="AW72">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX72">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="AY72">
-        <v>25.77</v>
+        <v>25.24</v>
       </c>
       <c r="AZ72" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="BA72">
-        <v>26.64</v>
+        <v>27.17</v>
       </c>
       <c r="BB72" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="BC72">
         <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
@@ -13931,11 +13931,11 @@
       </c>
       <c r="BD72">
         <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
-        <v>1.5723000000000014</v>
+        <v>3.6686999999999972</v>
       </c>
       <c r="BE72">
         <f>ABS(1-Table1[[#This Row],[Column2]])</f>
-        <v>3.0000000000000027E-2</v>
+        <v>6.9999999999999951E-2</v>
       </c>
     </row>
     <row r="73" spans="2:57" x14ac:dyDescent="0.3">
@@ -13984,22 +13984,22 @@
         <v>43.269999999999996</v>
       </c>
       <c r="AW73">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX73">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="AY73">
-        <v>25.24</v>
+        <v>25.77</v>
       </c>
       <c r="AZ73" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="BA73">
-        <v>27.17</v>
+        <v>26.64</v>
       </c>
       <c r="BB73" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="BC73">
         <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
@@ -14007,11 +14007,11 @@
       </c>
       <c r="BD73">
         <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
-        <v>3.6686999999999972</v>
+        <v>1.5723000000000014</v>
       </c>
       <c r="BE73">
         <f>ABS(1-Table1[[#This Row],[Column2]])</f>
-        <v>6.9999999999999951E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
     </row>
     <row r="74" spans="2:57" x14ac:dyDescent="0.3">
@@ -15684,22 +15684,22 @@
     </row>
     <row r="111" spans="49:57" x14ac:dyDescent="0.3">
       <c r="AW111">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX111">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="AY111">
-        <v>23.85</v>
+        <v>21.29</v>
       </c>
       <c r="AZ111" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="BA111">
-        <v>25.59</v>
+        <v>28.15</v>
       </c>
       <c r="BB111" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="BC111">
         <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
@@ -15707,31 +15707,31 @@
       </c>
       <c r="BD111">
         <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
-        <v>3.4607999999999972</v>
+        <v>11.865599999999999</v>
       </c>
       <c r="BE111">
         <f>ABS(1-Table1[[#This Row],[Column2]])</f>
-        <v>6.9999999999999951E-2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="112" spans="49:57" x14ac:dyDescent="0.3">
       <c r="AW112">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX112">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="AY112">
-        <v>21.29</v>
+        <v>23.85</v>
       </c>
       <c r="AZ112" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="BA112">
-        <v>28.15</v>
+        <v>25.59</v>
       </c>
       <c r="BB112" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="BC112">
         <f>Table1[[#This Row],[Column5]]+Table1[[#This Row],[Column3]]</f>
@@ -15739,11 +15739,11 @@
       </c>
       <c r="BD112">
         <f>Table1[[#This Row],[Column7]]*Table1[[#This Row],[Column9]]</f>
-        <v>11.865599999999999</v>
+        <v>3.4607999999999972</v>
       </c>
       <c r="BE112">
         <f>ABS(1-Table1[[#This Row],[Column2]])</f>
-        <v>0.24</v>
+        <v>6.9999999999999951E-2</v>
       </c>
     </row>
     <row r="113" spans="49:57" x14ac:dyDescent="0.3">
@@ -16197,13 +16197,13 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="AP1:AP69 AP132:AP1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF1:AF70 AF132:AF1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W71 W132:W1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
